--- a/documents/Wykresy 2.xlsx
+++ b/documents/Wykresy 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="846" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="846" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -925,12 +925,6 @@
     <t xml:space="preserve"> logs/run_report_2013_1_15_23_23_35.txt</t>
   </si>
   <si>
-    <t>TI-DBSCAN DENSE EPS=0,05</t>
-  </si>
-  <si>
-    <t>TI-DBSCAN SPARSE EPS=0,05</t>
-  </si>
-  <si>
     <t>budowa indeksu</t>
   </si>
   <si>
@@ -1101,6 +1095,76 @@
       <t xml:space="preserve"> EPS=0,05*MAX</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TI-DBSCAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gęsta reprezentacja punktu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> EPS=0,05</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TI-DBSCAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rzadka reprezentacja punktu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> EPS=0,05</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1176,6 +1240,14 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1185,17 +1257,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1349,11 +1413,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60185984"/>
-        <c:axId val="60220928"/>
+        <c:axId val="59727232"/>
+        <c:axId val="59762176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60185984"/>
+        <c:axId val="59727232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1383,12 +1447,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60220928"/>
+        <c:crossAx val="59762176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60220928"/>
+        <c:axId val="59762176"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1419,7 +1483,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60185984"/>
+        <c:crossAx val="59727232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1484,7 +1548,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ti_dbscan - index access</c:v>
+            <c:v>ti_dbscan - dostęp przez indeks</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -1540,7 +1604,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>ti_dbscan - direct access</c:v>
+            <c:v>ti_dbscan - bezpośredni dostęp</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -1600,11 +1664,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="89633536"/>
-        <c:axId val="89635456"/>
+        <c:axId val="93119232"/>
+        <c:axId val="93121152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89633536"/>
+        <c:axId val="93119232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1634,12 +1698,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89635456"/>
+        <c:crossAx val="93121152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89635456"/>
+        <c:axId val="93121152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1669,7 +1733,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89633536"/>
+        <c:crossAx val="93119232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1734,7 +1798,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ti_dbscan - index access</c:v>
+            <c:v>ti_dbscan - dostęp przez indeks</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -1790,7 +1854,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>ti_dbscan - direct access</c:v>
+            <c:v>ti_dbscan - bezpośredni dostęp</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -1850,11 +1914,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="100548608"/>
-        <c:axId val="100550528"/>
+        <c:axId val="93143040"/>
+        <c:axId val="93144960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100548608"/>
+        <c:axId val="93143040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1884,12 +1948,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100550528"/>
+        <c:crossAx val="93144960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100550528"/>
+        <c:axId val="93144960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1919,7 +1983,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100548608"/>
+        <c:crossAx val="93143040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1984,7 +2048,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ti_dbscan - index access</c:v>
+            <c:v>ti_dbscan - dostęp przez indeks</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -2040,7 +2104,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>ti_dbscan - direct access</c:v>
+            <c:v>ti_dbscan - bezpośredni dostęp</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -2100,11 +2164,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="100592640"/>
-        <c:axId val="100598912"/>
+        <c:axId val="93191168"/>
+        <c:axId val="93193344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100592640"/>
+        <c:axId val="93191168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2134,12 +2198,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100598912"/>
+        <c:crossAx val="93193344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100598912"/>
+        <c:axId val="93193344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2169,7 +2233,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100592640"/>
+        <c:crossAx val="93191168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2234,7 +2298,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ti_dbscan - index access</c:v>
+            <c:v>ti_dbscan - dostęp przez indeks</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -2284,7 +2348,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>ti_dbscan - direct access</c:v>
+            <c:v>ti_dbscan - bezpośredni dostęp</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -2338,11 +2402,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="100620544"/>
-        <c:axId val="100622720"/>
+        <c:axId val="93219072"/>
+        <c:axId val="93221248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100620544"/>
+        <c:axId val="93219072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2372,12 +2436,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100622720"/>
+        <c:crossAx val="93221248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100622720"/>
+        <c:axId val="93221248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2407,7 +2471,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100620544"/>
+        <c:crossAx val="93219072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2457,11 +2521,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="101020416"/>
-        <c:axId val="101021952"/>
+        <c:axId val="92635904"/>
+        <c:axId val="92637440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101020416"/>
+        <c:axId val="92635904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2470,12 +2534,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101021952"/>
+        <c:crossAx val="92637440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101021952"/>
+        <c:axId val="92637440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2484,7 +2548,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101020416"/>
+        <c:crossAx val="92635904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2664,11 +2728,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="101059200"/>
-        <c:axId val="101069568"/>
+        <c:axId val="92674688"/>
+        <c:axId val="92685056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101059200"/>
+        <c:axId val="92674688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2698,12 +2762,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101069568"/>
+        <c:crossAx val="92685056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101069568"/>
+        <c:axId val="92685056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2733,7 +2797,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101059200"/>
+        <c:crossAx val="92674688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2914,11 +2978,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="101099008"/>
-        <c:axId val="101100928"/>
+        <c:axId val="92714496"/>
+        <c:axId val="92716416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101099008"/>
+        <c:axId val="92714496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2948,12 +3012,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101100928"/>
+        <c:crossAx val="92716416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101100928"/>
+        <c:axId val="92716416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2983,7 +3047,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101099008"/>
+        <c:crossAx val="92714496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3164,11 +3228,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="102449536"/>
-        <c:axId val="102451456"/>
+        <c:axId val="92754304"/>
+        <c:axId val="92756224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="102449536"/>
+        <c:axId val="92754304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3198,12 +3262,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102451456"/>
+        <c:crossAx val="92756224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102451456"/>
+        <c:axId val="92756224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3233,7 +3297,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102449536"/>
+        <c:crossAx val="92754304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3402,11 +3466,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="102476800"/>
-        <c:axId val="102491264"/>
+        <c:axId val="92797952"/>
+        <c:axId val="93258880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="102476800"/>
+        <c:axId val="92797952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3436,12 +3500,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102491264"/>
+        <c:crossAx val="93258880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102491264"/>
+        <c:axId val="93258880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3471,7 +3535,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102476800"/>
+        <c:crossAx val="92797952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3523,7 +3587,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3652,11 +3715,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="61081856"/>
-        <c:axId val="61088128"/>
+        <c:axId val="60213504"/>
+        <c:axId val="60494208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61081856"/>
+        <c:axId val="60213504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3679,19 +3742,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61088128"/>
+        <c:crossAx val="60494208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61088128"/>
+        <c:axId val="60494208"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3715,21 +3777,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61081856"/>
+        <c:crossAx val="60213504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3885,11 +3945,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60713600"/>
-        <c:axId val="60715776"/>
+        <c:axId val="7203456"/>
+        <c:axId val="59458304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60713600"/>
+        <c:axId val="7203456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3919,12 +3979,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60715776"/>
+        <c:crossAx val="59458304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60715776"/>
+        <c:axId val="59458304"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3955,7 +4015,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60713600"/>
+        <c:crossAx val="7203456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4007,7 +4067,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4136,11 +4195,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="61113856"/>
-        <c:axId val="61115776"/>
+        <c:axId val="92603904"/>
+        <c:axId val="92605824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61113856"/>
+        <c:axId val="92603904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4163,19 +4222,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61115776"/>
+        <c:crossAx val="92605824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61115776"/>
+        <c:axId val="92605824"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4203,21 +4261,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61113856"/>
+        <c:crossAx val="92603904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4262,7 +4318,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4367,11 +4422,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="61162240"/>
-        <c:axId val="61164160"/>
+        <c:axId val="60445440"/>
+        <c:axId val="60447360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61162240"/>
+        <c:axId val="60445440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4394,19 +4449,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61164160"/>
+        <c:crossAx val="60447360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61164160"/>
+        <c:axId val="60447360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4429,21 +4483,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61162240"/>
+        <c:crossAx val="60445440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4488,7 +4540,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4593,11 +4644,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="61177856"/>
-        <c:axId val="61179776"/>
+        <c:axId val="60542976"/>
+        <c:axId val="60544896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61177856"/>
+        <c:axId val="60542976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4620,19 +4671,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61179776"/>
+        <c:crossAx val="60544896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61179776"/>
+        <c:axId val="60544896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4655,21 +4705,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61177856"/>
+        <c:crossAx val="60542976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4712,11 +4760,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="103422208"/>
-        <c:axId val="103448576"/>
+        <c:axId val="99830016"/>
+        <c:axId val="99856384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="103422208"/>
+        <c:axId val="99830016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4725,12 +4773,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103448576"/>
+        <c:crossAx val="99856384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103448576"/>
+        <c:axId val="99856384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4739,14 +4787,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103422208"/>
+        <c:crossAx val="99830016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4790,7 +4837,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4919,11 +4965,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="104018304"/>
-        <c:axId val="104020224"/>
+        <c:axId val="99881344"/>
+        <c:axId val="99883264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104018304"/>
+        <c:axId val="99881344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4946,19 +4992,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104020224"/>
+        <c:crossAx val="99883264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104020224"/>
+        <c:axId val="99883264"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4986,14 +5031,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104018304"/>
+        <c:crossAx val="99881344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5045,7 +5089,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5174,11 +5217,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="104045568"/>
-        <c:axId val="104047744"/>
+        <c:axId val="99920896"/>
+        <c:axId val="99927168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104045568"/>
+        <c:axId val="99920896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5201,19 +5244,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104047744"/>
+        <c:crossAx val="99927168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104047744"/>
+        <c:axId val="99927168"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5237,14 +5279,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104045568"/>
+        <c:crossAx val="99920896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5296,7 +5337,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5401,11 +5441,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="104142720"/>
-        <c:axId val="104148992"/>
+        <c:axId val="101074816"/>
+        <c:axId val="101076992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104142720"/>
+        <c:axId val="101074816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5428,19 +5468,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104148992"/>
+        <c:crossAx val="101076992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104148992"/>
+        <c:axId val="101076992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5463,14 +5502,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104142720"/>
+        <c:crossAx val="101074816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5522,7 +5560,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5627,11 +5664,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="104194816"/>
-        <c:axId val="104196736"/>
+        <c:axId val="102171392"/>
+        <c:axId val="102173312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104194816"/>
+        <c:axId val="102171392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5654,19 +5691,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104196736"/>
+        <c:crossAx val="102173312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104196736"/>
+        <c:axId val="102173312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5689,14 +5725,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104194816"/>
+        <c:crossAx val="102171392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5748,7 +5783,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5853,11 +5887,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="104263680"/>
-        <c:axId val="104265600"/>
+        <c:axId val="102232064"/>
+        <c:axId val="102233984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104263680"/>
+        <c:axId val="102232064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5880,19 +5914,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104265600"/>
+        <c:crossAx val="102233984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104265600"/>
+        <c:axId val="102233984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5915,21 +5948,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104263680"/>
+        <c:crossAx val="102232064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5974,7 +6005,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6085,11 +6115,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="104606720"/>
-        <c:axId val="104633472"/>
+        <c:axId val="103885824"/>
+        <c:axId val="103912576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104606720"/>
+        <c:axId val="103885824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6112,19 +6142,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104633472"/>
+        <c:crossAx val="103912576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104633472"/>
+        <c:axId val="103912576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6147,21 +6176,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104606720"/>
+        <c:crossAx val="103885824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6335,11 +6362,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60745600"/>
-        <c:axId val="61607936"/>
+        <c:axId val="74692480"/>
+        <c:axId val="61673472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60745600"/>
+        <c:axId val="74692480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6369,12 +6396,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61607936"/>
+        <c:crossAx val="61673472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61607936"/>
+        <c:axId val="61673472"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6405,7 +6432,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60745600"/>
+        <c:crossAx val="74692480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6457,7 +6484,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6562,11 +6588,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="104659200"/>
-        <c:axId val="104665472"/>
+        <c:axId val="105388288"/>
+        <c:axId val="105390464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104659200"/>
+        <c:axId val="105388288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6589,19 +6615,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104665472"/>
+        <c:crossAx val="105390464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104665472"/>
+        <c:axId val="105390464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6624,21 +6649,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104659200"/>
+        <c:crossAx val="105388288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6683,7 +6706,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6788,11 +6810,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="104711680"/>
-        <c:axId val="104713600"/>
+        <c:axId val="105424384"/>
+        <c:axId val="105426304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104711680"/>
+        <c:axId val="105424384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6815,19 +6837,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104713600"/>
+        <c:crossAx val="105426304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104713600"/>
+        <c:axId val="105426304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6854,21 +6875,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104711680"/>
+        <c:crossAx val="105424384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6911,11 +6930,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="106164224"/>
-        <c:axId val="106165760"/>
+        <c:axId val="104067072"/>
+        <c:axId val="104068608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106164224"/>
+        <c:axId val="104067072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6924,12 +6943,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106165760"/>
+        <c:crossAx val="104068608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106165760"/>
+        <c:axId val="104068608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6938,14 +6957,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106164224"/>
+        <c:crossAx val="104067072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6989,7 +7007,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7100,11 +7117,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="103757696"/>
-        <c:axId val="103759872"/>
+        <c:axId val="104093568"/>
+        <c:axId val="104099840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="103757696"/>
+        <c:axId val="104093568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7127,19 +7144,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103759872"/>
+        <c:crossAx val="104099840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103759872"/>
+        <c:axId val="104099840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7162,14 +7178,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103757696"/>
+        <c:crossAx val="104093568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7221,7 +7236,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7326,11 +7340,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="106144512"/>
-        <c:axId val="106146432"/>
+        <c:axId val="104121088"/>
+        <c:axId val="104123008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106144512"/>
+        <c:axId val="104121088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7353,19 +7367,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106146432"/>
+        <c:crossAx val="104123008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106146432"/>
+        <c:axId val="104123008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7388,14 +7401,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106144512"/>
+        <c:crossAx val="104121088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7447,7 +7459,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7552,11 +7563,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="106159488"/>
-        <c:axId val="103904768"/>
+        <c:axId val="104144256"/>
+        <c:axId val="104166912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106159488"/>
+        <c:axId val="104144256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7579,19 +7590,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103904768"/>
+        <c:crossAx val="104166912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103904768"/>
+        <c:axId val="104166912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7618,14 +7628,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106159488"/>
+        <c:crossAx val="104144256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7677,7 +7686,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7782,11 +7790,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="103930112"/>
-        <c:axId val="103936384"/>
+        <c:axId val="104196352"/>
+        <c:axId val="104202624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="103930112"/>
+        <c:axId val="104196352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7809,19 +7817,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103936384"/>
+        <c:crossAx val="104202624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103936384"/>
+        <c:axId val="104202624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7844,14 +7851,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103930112"/>
+        <c:crossAx val="104196352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8088,11 +8094,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="106178816"/>
-        <c:axId val="106185088"/>
+        <c:axId val="106633472"/>
+        <c:axId val="106643840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106178816"/>
+        <c:axId val="106633472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8122,12 +8128,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106185088"/>
+        <c:crossAx val="106643840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106185088"/>
+        <c:axId val="106643840"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8158,7 +8164,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106178816"/>
+        <c:crossAx val="106633472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8395,11 +8401,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="106207488"/>
-        <c:axId val="106217856"/>
+        <c:axId val="106678528"/>
+        <c:axId val="106688896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106207488"/>
+        <c:axId val="106678528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8429,12 +8435,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106217856"/>
+        <c:crossAx val="106688896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106217856"/>
+        <c:axId val="106688896"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8465,7 +8471,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106207488"/>
+        <c:crossAx val="106678528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8696,11 +8702,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="107501824"/>
-        <c:axId val="107512192"/>
+        <c:axId val="106719488"/>
+        <c:axId val="106738048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107501824"/>
+        <c:axId val="106719488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8730,12 +8736,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107512192"/>
+        <c:crossAx val="106738048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107512192"/>
+        <c:axId val="106738048"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8766,7 +8772,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107501824"/>
+        <c:crossAx val="106719488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8941,11 +8947,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="61637760"/>
-        <c:axId val="61639680"/>
+        <c:axId val="61711488"/>
+        <c:axId val="61713408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61637760"/>
+        <c:axId val="61711488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8975,12 +8981,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61639680"/>
+        <c:crossAx val="61713408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61639680"/>
+        <c:axId val="61713408"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9016,7 +9022,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61637760"/>
+        <c:crossAx val="61711488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9244,11 +9250,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="107956480"/>
-        <c:axId val="107958656"/>
+        <c:axId val="107362560"/>
+        <c:axId val="107368832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107956480"/>
+        <c:axId val="107362560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9278,12 +9284,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107958656"/>
+        <c:crossAx val="107368832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107958656"/>
+        <c:axId val="107368832"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9314,7 +9320,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107956480"/>
+        <c:crossAx val="107362560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9364,11 +9370,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="107991808"/>
-        <c:axId val="107993344"/>
+        <c:axId val="107401984"/>
+        <c:axId val="107403520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107991808"/>
+        <c:axId val="107401984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9377,12 +9383,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107993344"/>
+        <c:crossAx val="107403520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107993344"/>
+        <c:axId val="107403520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9391,7 +9397,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107991808"/>
+        <c:crossAx val="107401984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9627,11 +9633,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="107621760"/>
-        <c:axId val="107640320"/>
+        <c:axId val="107298176"/>
+        <c:axId val="107316736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107621760"/>
+        <c:axId val="107298176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9661,12 +9667,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107640320"/>
+        <c:crossAx val="107316736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107640320"/>
+        <c:axId val="107316736"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9697,7 +9703,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107621760"/>
+        <c:crossAx val="107298176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9934,11 +9940,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="107666432"/>
-        <c:axId val="109315200"/>
+        <c:axId val="106372096"/>
+        <c:axId val="106378368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107666432"/>
+        <c:axId val="106372096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9968,12 +9974,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109315200"/>
+        <c:crossAx val="106378368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109315200"/>
+        <c:axId val="106378368"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -10004,7 +10010,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107666432"/>
+        <c:crossAx val="106372096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10232,11 +10238,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="109361792"/>
-        <c:axId val="109368064"/>
+        <c:axId val="106416768"/>
+        <c:axId val="106423040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109361792"/>
+        <c:axId val="106416768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10266,12 +10272,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109368064"/>
+        <c:crossAx val="106423040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109368064"/>
+        <c:axId val="106423040"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -10302,7 +10308,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109361792"/>
+        <c:crossAx val="106416768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10533,11 +10539,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="109455616"/>
-        <c:axId val="109470080"/>
+        <c:axId val="106445056"/>
+        <c:axId val="106467712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109455616"/>
+        <c:axId val="106445056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10567,12 +10573,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109470080"/>
+        <c:crossAx val="106467712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109470080"/>
+        <c:axId val="106467712"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -10603,7 +10609,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109455616"/>
+        <c:crossAx val="106445056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10653,11 +10659,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="61652352"/>
-        <c:axId val="61682816"/>
+        <c:axId val="61730176"/>
+        <c:axId val="89351296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61652352"/>
+        <c:axId val="61730176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10666,12 +10672,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61682816"/>
+        <c:crossAx val="89351296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61682816"/>
+        <c:axId val="89351296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10680,7 +10686,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61652352"/>
+        <c:crossAx val="61730176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10842,11 +10848,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="61720448"/>
-        <c:axId val="61722624"/>
+        <c:axId val="89378176"/>
+        <c:axId val="89380352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61720448"/>
+        <c:axId val="89378176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10876,12 +10882,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61722624"/>
+        <c:crossAx val="89380352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61722624"/>
+        <c:axId val="89380352"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -10912,7 +10918,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61720448"/>
+        <c:crossAx val="89378176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11069,11 +11075,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="62095744"/>
-        <c:axId val="62097664"/>
+        <c:axId val="91056384"/>
+        <c:axId val="91066752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62095744"/>
+        <c:axId val="91056384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11103,12 +11109,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62097664"/>
+        <c:crossAx val="91066752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62097664"/>
+        <c:axId val="91066752"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -11139,7 +11145,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62095744"/>
+        <c:crossAx val="91056384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11314,11 +11320,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="62110336"/>
-        <c:axId val="62132992"/>
+        <c:axId val="91077632"/>
+        <c:axId val="91370624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62110336"/>
+        <c:axId val="91077632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11348,12 +11354,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62132992"/>
+        <c:crossAx val="91370624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62132992"/>
+        <c:axId val="91370624"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -11389,7 +11395,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62110336"/>
+        <c:crossAx val="91077632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11570,11 +11576,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="62158336"/>
-        <c:axId val="62160256"/>
+        <c:axId val="91395584"/>
+        <c:axId val="91397504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62158336"/>
+        <c:axId val="91395584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11604,12 +11610,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62160256"/>
+        <c:crossAx val="91397504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62160256"/>
+        <c:axId val="91397504"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -11640,7 +11646,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62158336"/>
+        <c:crossAx val="91395584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12360,7 +12366,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9299222" cy="6074833"/>
+    <xdr:ext cx="9300882" cy="6072187"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Wykres 1"/>
@@ -26654,1016 +26660,1021 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="3.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>207</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
       <c r="K1" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+        <v>304</v>
+      </c>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="11" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="2">
         <v>1000</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <f>D4+E4+F4</f>
         <v>1.66999667</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="3">
         <v>1.64333</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="3">
         <v>5.6666700000000004E-3</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="3">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="3">
         <f>H4+I4+J4</f>
         <v>0.85600030000000005</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="3">
         <v>0.83566700000000005</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="3">
         <v>1.7333299999999999E-2</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="3">
         <f>L4+M4+N4</f>
         <v>2.5333370000000001E-2</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="3">
         <v>3.6666699999999999E-3</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="3">
         <v>1.76667E-2</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5">
+      <c r="A5" s="8"/>
+      <c r="B5" s="2">
         <v>2000</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="3">
         <f t="shared" ref="C5:C21" si="0">D5+E5+F5</f>
         <v>6.4936700300000005</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="3">
         <v>6.4466700000000001</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="3">
         <v>3.3333299999999998E-3</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="3">
         <v>4.3666700000000003E-2</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="3">
         <f t="shared" ref="G5:G22" si="1">H5+I5+J5</f>
         <v>1.6393366700000001</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="3">
         <v>1.5916699999999999</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="3">
         <v>3.6666699999999999E-3</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="3">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="3">
         <f t="shared" ref="K5:K23" si="2">L5+M5+N5</f>
         <v>5.8333330000000003E-2</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="3">
         <v>9.3333300000000008E-3</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="3">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5">
+      <c r="A6" s="8"/>
+      <c r="B6" s="2">
         <v>4000</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="3">
         <f t="shared" si="0"/>
         <v>27.190299669999998</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="3">
         <v>27.067299999999999</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="3">
         <v>7.6666700000000004E-3</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="3">
         <v>0.115333</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="3">
         <f t="shared" si="1"/>
         <v>7.64266633</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="3">
         <v>7.5190000000000001</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="3">
         <v>9.3333300000000008E-3</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="3">
         <v>0.114333</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="3">
         <f t="shared" si="2"/>
         <v>0.1483333</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="3">
         <v>2.4333299999999999E-2</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="3">
         <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5">
+      <c r="A7" s="8"/>
+      <c r="B7" s="2">
         <v>6000</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="3">
         <f t="shared" si="0"/>
         <v>62.666966299999991</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="3">
         <v>62.286299999999997</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="3">
         <v>1.1333299999999999E-2</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="3">
         <v>0.36933300000000002</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="3">
         <f t="shared" si="1"/>
         <v>19.9603337</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="3">
         <v>19.581</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="3">
         <v>1.0666699999999999E-2</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="3">
         <v>0.36866700000000002</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="3">
         <f t="shared" si="2"/>
         <v>0.43866699999999997</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="3">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="3">
         <v>0.38266699999999998</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5">
+      <c r="A8" s="8"/>
+      <c r="B8" s="2">
         <v>8000</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="3">
         <f t="shared" si="0"/>
         <v>113.60166700000001</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="3">
         <v>113.117</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="3">
         <v>1.9E-2</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="3">
         <v>0.465667</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="3">
         <f t="shared" si="1"/>
         <v>54.678633300000001</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="3">
         <v>54.193300000000001</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="3">
         <v>1.9333300000000001E-2</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="3">
         <v>0.46600000000000003</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="3">
         <f t="shared" si="2"/>
         <v>0.56399999999999995</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="3">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="3">
         <v>1.9E-2</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="3">
         <v>0.47299999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="2">
         <v>500</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="3">
         <f t="shared" si="0"/>
         <v>0.53233333000000005</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="3">
         <v>0.51500000000000001</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="3">
         <v>1.33333E-3</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="3">
         <f t="shared" si="1"/>
         <v>0.12200029999999999</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="3">
         <v>0.103667</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="3">
         <v>2E-3</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="3">
         <v>1.6333299999999999E-2</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="3">
         <f t="shared" si="2"/>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="3">
         <v>2E-3</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="3">
         <v>2E-3</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="3">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="5">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2">
         <v>1000</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="3">
         <f t="shared" si="0"/>
         <v>2.1173333000000003</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="3">
         <v>2.0710000000000002</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="3">
         <v>4.3333299999999998E-2</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="3">
         <f t="shared" si="1"/>
         <v>0.72666700000000006</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="3">
         <v>0.67866700000000002</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="3">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="3">
         <f t="shared" si="2"/>
         <v>5.1000029999999995E-2</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="3">
         <v>2.3333300000000002E-3</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="3">
         <v>4.4666699999999997E-2</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="5">
+      <c r="A11" s="8"/>
+      <c r="B11" s="2">
         <v>2000</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="3">
         <f t="shared" si="0"/>
         <v>8.9566700299999997</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="3">
         <v>8.8806700000000003</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="3">
         <v>5.3333299999999998E-3</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="3">
         <v>7.0666699999999999E-2</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="3">
         <f t="shared" si="1"/>
         <v>3.87700333</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="3">
         <v>3.8016700000000001</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="3">
         <v>5.3333299999999998E-3</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="3">
         <f t="shared" si="2"/>
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="3">
         <v>9.3333300000000008E-3</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="3">
         <v>5.6666700000000004E-3</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="5">
+      <c r="A12" s="8"/>
+      <c r="B12" s="2">
         <v>3000</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="3">
         <f t="shared" si="0"/>
         <v>20.265667000000001</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="3">
         <v>20.105</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="3">
         <v>0.153667</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="3">
         <f t="shared" si="1"/>
         <v>8.654666670000001</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="3">
         <v>8.4920000000000009</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="3">
         <v>6.6666700000000004E-3</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="3">
         <v>0.156</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="3">
         <f t="shared" si="2"/>
         <v>0.17833367</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="3">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="3">
         <v>7.6666700000000004E-3</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="3">
         <v>0.153667</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="5">
+      <c r="A13" s="8"/>
+      <c r="B13" s="2">
         <v>4000</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="3">
         <f t="shared" si="0"/>
         <v>36.297033299999995</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="3">
         <v>36.0627</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="3">
         <v>1.03333E-2</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="3">
         <v>0.224</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="3">
         <f t="shared" si="1"/>
         <v>16.326333000000002</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="3">
         <v>16.093</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="3">
         <v>0.01</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="3">
         <v>0.223333</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="3">
         <f t="shared" si="2"/>
         <v>0.26599970000000001</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="3">
         <v>2.6666700000000002E-2</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="3">
         <v>0.01</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="3">
         <v>0.22933300000000001</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="5">
         <v>1000</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="3">
         <f t="shared" si="0"/>
         <v>7.2553299999999998</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="3">
         <v>6.6623299999999999</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="3">
         <v>0.56799999999999995</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="3">
         <f t="shared" si="1"/>
         <v>0.22933340000000002</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="3">
         <v>1.5666699999999999E-2</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="3">
         <v>1.0666699999999999E-2</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="3">
         <v>0.20300000000000001</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="3">
         <f t="shared" si="2"/>
         <v>0.22366660000000002</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="3">
         <v>1.03333E-2</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="3">
         <v>1.03333E-2</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="3">
         <v>0.20300000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="9">
+      <c r="A15" s="8"/>
+      <c r="B15" s="5">
         <v>5000</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="3">
         <f t="shared" si="0"/>
         <v>748.39800000000002</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="3">
         <v>748.23400000000004</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="3">
         <v>0.16</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="3">
         <f t="shared" si="1"/>
         <v>0.91566630000000004</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="3">
         <v>0.78</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="3">
         <v>1.03333E-2</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="3">
         <v>0.125333</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="3">
         <f t="shared" si="2"/>
         <v>0.26566633000000001</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="3">
         <v>0.125</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="3">
         <v>5.3333299999999998E-3</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="3">
         <v>0.13533300000000001</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="9">
+      <c r="A16" s="8"/>
+      <c r="B16" s="5">
         <v>10000</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="3">
         <f t="shared" si="0"/>
         <v>4611.0773333299994</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="3">
         <v>4610.71</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="3">
         <v>7.3333299999999999E-3</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="3">
         <v>0.36</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="3">
         <f t="shared" si="1"/>
         <v>2.5793296999999997</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="3">
         <v>2.29833</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="3">
         <v>1.0666699999999999E-2</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="3">
         <v>0.27033299999999999</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="3">
         <f t="shared" si="2"/>
         <v>0.72799999999999998</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="3">
         <v>0.45800000000000002</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="3">
         <v>0.01</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="3">
         <v>0.26</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="9">
+      <c r="A17" s="8"/>
+      <c r="B17" s="5">
         <v>30000</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="3">
         <f t="shared" si="1"/>
         <v>17.3680333</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="3">
         <v>15.9847</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="3">
         <v>2.1333299999999999E-2</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="3">
         <v>1.3620000000000001</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="3">
         <f t="shared" si="2"/>
         <v>3.0773333000000003</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="3">
         <v>1.69533</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="3">
         <v>2.7333300000000001E-2</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="3">
         <v>1.35467</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="9">
+      <c r="A18" s="8"/>
+      <c r="B18" s="5">
         <v>60000</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="3">
         <f t="shared" si="1"/>
         <v>49.255969999999998</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="3">
         <v>46.744300000000003</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="3">
         <v>4.7E-2</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="3">
         <v>2.4646699999999999</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="3">
         <f t="shared" si="2"/>
         <v>5.819</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="3">
         <v>3.3436699999999999</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="3">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="3">
         <v>2.4333300000000002</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="5">
         <v>1000</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="3">
         <f t="shared" si="0"/>
         <v>7.4323337</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="3">
         <v>6.8259999999999996</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="3">
         <v>2.5666700000000001E-2</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="3">
         <v>0.58066700000000004</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="3">
         <f t="shared" si="1"/>
         <v>1.6536629999999999</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="3">
         <v>1.47533</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="3">
         <v>0.17533299999999999</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="3">
         <f t="shared" si="2"/>
         <v>0.25033369999999999</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="3">
         <v>1.5666699999999999E-2</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="3">
         <v>1.2E-2</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="3">
         <v>0.222667</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="9">
+      <c r="A20" s="8"/>
+      <c r="B20" s="5">
         <v>5000</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="3">
         <f t="shared" si="0"/>
         <v>733.81533366999997</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="3">
         <v>733.654</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="3">
         <v>3.6666699999999999E-3</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="3">
         <v>0.157667</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="3">
         <f t="shared" si="1"/>
         <v>70.735366999999997</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="3">
         <v>60.991700000000002</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="3">
         <v>0.11466700000000001</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="3">
         <v>9.6289999999999996</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="3">
         <f t="shared" si="2"/>
         <v>0.22466637</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="3">
         <v>0.129333</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="3">
         <v>7.6666700000000004E-3</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="3">
         <v>8.76667E-2</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="9">
+      <c r="A21" s="8"/>
+      <c r="B21" s="5">
         <v>10000</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="3">
         <f t="shared" si="0"/>
         <v>4378.3213333299991</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="3">
         <v>4378.1099999999997</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="3">
         <v>7.3333299999999999E-3</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="3">
         <v>0.20399999999999999</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="3">
         <f t="shared" si="1"/>
         <v>437.99033299999996</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="3">
         <v>430.565</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="3">
         <v>0.41933300000000001</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="3">
         <v>7.0060000000000002</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="3">
         <f t="shared" si="2"/>
         <v>0.84200000000000008</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="3">
         <v>0.53</v>
       </c>
-      <c r="M21" s="7">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7">
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>0.312</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="9">
+      <c r="A22" s="8"/>
+      <c r="B22" s="5">
         <v>30000</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="3">
         <f t="shared" si="1"/>
         <v>4696.2709999999997</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="3">
         <v>4694.96</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="3">
         <v>2.3E-2</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="3">
         <v>1.288</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="3">
         <f t="shared" si="2"/>
         <v>3.0683400000000001</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="3">
         <v>2.0436700000000001</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="3">
         <v>1.00867</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="9">
+      <c r="A23" s="8"/>
+      <c r="B23" s="5">
         <v>60000</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="3">
         <f t="shared" si="2"/>
         <v>9.2143332999999998</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="3">
         <v>6.4533300000000002</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="3">
         <v>4.6333300000000001E-2</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="3">
         <v>2.7146699999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
@@ -27680,11 +27691,6 @@
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:A18"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27694,7 +27700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
@@ -27710,721 +27716,721 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection sqref="A1:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="3.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="C1" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="11" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="2">
         <v>1000</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <f>D4+E4+F4</f>
         <v>98.476297000000002</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="3">
         <v>95.095299999999995</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="3">
         <v>0.23466699999999999</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="3">
         <v>3.1463299999999998</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="3">
         <f>H4+I4+J4</f>
         <v>0.85600030000000005</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="3">
         <v>0.83566700000000005</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="3">
         <v>1.7333299999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5">
+      <c r="A5" s="8"/>
+      <c r="B5" s="2">
         <v>2000</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="3">
         <f t="shared" ref="G5:G23" si="0">H5+I5+J5</f>
         <v>1.6393366700000001</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="3">
         <v>1.5916699999999999</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="3">
         <v>3.6666699999999999E-3</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="3">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5">
+      <c r="A6" s="8"/>
+      <c r="B6" s="2">
         <v>4000</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="3">
         <f t="shared" si="0"/>
         <v>7.64266633</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="3">
         <v>7.5190000000000001</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="3">
         <v>9.3333300000000008E-3</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="3">
         <v>0.114333</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5">
+      <c r="A7" s="8"/>
+      <c r="B7" s="2">
         <v>6000</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>19.9603337</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="3">
         <v>19.581</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="3">
         <v>1.0666699999999999E-2</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="3">
         <v>0.36866700000000002</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5">
+      <c r="A8" s="8"/>
+      <c r="B8" s="2">
         <v>8000</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>54.678633300000001</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="3">
         <v>54.193300000000001</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="3">
         <v>1.9333300000000001E-2</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="3">
         <v>0.46600000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="2">
         <v>500</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="3">
         <f>D9+E9+F9</f>
         <v>19.938002999999998</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="3">
         <v>18.494</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="3">
         <v>0.115333</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="3">
         <v>1.32867</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>0.12200029999999999</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="3">
         <v>0.103667</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="3">
         <v>2E-3</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="3">
         <v>1.6333299999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="5">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2">
         <v>1000</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="3">
         <f>D10+E10+F10</f>
         <v>110.29266999999999</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="3">
         <v>106.999</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="3">
         <v>0.23400000000000001</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="3">
         <v>3.0596700000000001</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>0.72666700000000006</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="3">
         <v>0.67866700000000002</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="3">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="5">
+      <c r="A11" s="8"/>
+      <c r="B11" s="2">
         <v>2000</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>3.87700333</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="3">
         <v>3.8016700000000001</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="3">
         <v>5.3333299999999998E-3</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="5">
+      <c r="A12" s="8"/>
+      <c r="B12" s="2">
         <v>3000</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="3">
         <f t="shared" si="0"/>
         <v>8.654666670000001</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="3">
         <v>8.4920000000000009</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="3">
         <v>6.6666700000000004E-3</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="3">
         <v>0.156</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="5">
+      <c r="A13" s="8"/>
+      <c r="B13" s="2">
         <v>4000</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="3">
         <f t="shared" si="0"/>
         <v>16.326333000000002</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="3">
         <v>16.093</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="3">
         <v>0.01</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="3">
         <v>0.223333</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="5">
         <v>1000</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="3">
         <f>D14+E14+F14</f>
         <v>0.22933340000000002</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="3">
         <v>1.5666699999999999E-2</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="3">
         <v>1.0666699999999999E-2</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="3">
         <v>0.20300000000000001</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="3">
         <f t="shared" si="0"/>
         <v>9.3333300000000008E-2</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="3">
         <v>3.1333300000000001E-2</v>
       </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>6.2E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="9">
+      <c r="A15" s="8"/>
+      <c r="B15" s="5">
         <v>5000</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="3">
         <f t="shared" ref="C15:C22" si="1">D15+E15+F15</f>
         <v>0.91566630000000004</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="3">
         <v>0.78</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="3">
         <v>1.03333E-2</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="3">
         <v>0.125333</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="3">
         <f t="shared" si="0"/>
         <v>1.3446699999999998</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="3">
         <v>1.03267</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="3">
         <v>0.11933299999999999</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="3">
         <v>0.192667</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="9">
+      <c r="A16" s="8"/>
+      <c r="B16" s="5">
         <v>10000</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="3">
         <f t="shared" si="1"/>
         <v>2.5793296999999997</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="3">
         <v>2.29833</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="3">
         <v>1.0666699999999999E-2</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="3">
         <v>0.27033299999999999</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="3">
         <f t="shared" si="0"/>
         <v>3.645</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="3">
         <v>3.4470000000000001</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="3">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="3">
         <v>0.125</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="9">
+      <c r="A17" s="8"/>
+      <c r="B17" s="5">
         <v>30000</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="3">
         <f t="shared" si="1"/>
         <v>17.3680333</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="3">
         <v>15.9847</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="3">
         <v>2.1333299999999999E-2</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="3">
         <v>1.3620000000000001</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="3">
         <f t="shared" si="0"/>
         <v>22.942366999999997</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="3">
         <v>22.489699999999999</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="3">
         <v>3.1E-2</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="3">
         <v>0.42166700000000001</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="9">
+      <c r="A18" s="8"/>
+      <c r="B18" s="5">
         <v>60000</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="3">
         <f t="shared" si="1"/>
         <v>49.255969999999998</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="3">
         <v>46.744300000000003</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="3">
         <v>4.7E-2</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="3">
         <v>2.4646699999999999</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="3">
         <f t="shared" si="0"/>
         <v>70.475366699999995</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="3">
         <v>69.492699999999999</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="3">
         <v>5.1666700000000003E-2</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="3">
         <v>0.93100000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="5">
         <v>1000</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="3">
         <f t="shared" si="1"/>
         <v>1.6536629999999999</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="3">
         <v>1.47533</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="3">
         <v>0.17533299999999999</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="3">
         <f t="shared" si="0"/>
         <v>0.36866663</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="3">
         <v>0.34399999999999997</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="3">
         <v>1.33333E-3</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="3">
         <v>2.3333300000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="9">
+      <c r="A20" s="8"/>
+      <c r="B20" s="5">
         <v>5000</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="3">
         <f t="shared" si="1"/>
         <v>70.735366999999997</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="3">
         <v>60.991700000000002</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="3">
         <v>0.11466700000000001</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="3">
         <v>9.6289999999999996</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="3">
         <f t="shared" si="0"/>
         <v>8.3100033</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="3">
         <v>8.2306699999999999</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="3">
         <v>7.2333300000000003E-2</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="9">
+      <c r="A21" s="8"/>
+      <c r="B21" s="5">
         <v>10000</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="3">
         <f t="shared" si="1"/>
         <v>437.99033299999996</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="3">
         <v>430.565</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="3">
         <v>0.41933300000000001</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="3">
         <v>7.0060000000000002</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="3">
         <f t="shared" si="0"/>
         <v>33.074632999999999</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="3">
         <v>32.904299999999999</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="3">
         <v>0.156333</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="9">
+      <c r="A22" s="8"/>
+      <c r="B22" s="5">
         <v>30000</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="3">
         <f t="shared" si="1"/>
         <v>4696.2709999999997</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="3">
         <v>4694.96</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="3">
         <v>2.3E-2</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="3">
         <v>1.288</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="3">
         <f t="shared" si="0"/>
         <v>319.36266669999998</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="3">
         <v>318.786</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="3">
         <v>4.6666699999999998E-2</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="3">
         <v>0.53</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="9">
+      <c r="A23" s="8"/>
+      <c r="B23" s="5">
         <v>60000</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="3">
         <f t="shared" si="0"/>
         <v>1345.57233</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="3">
         <v>1344.31</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="3">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="3">
         <v>1.17733</v>
       </c>
     </row>
@@ -28471,803 +28477,798 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection sqref="A1:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="7" style="5"/>
+    <col min="1" max="1" width="3.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="7" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>207</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+        <v>299</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
       <c r="H1" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+        <v>300</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="11" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="2">
         <v>1000</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <f>D4+E4+F4+G4</f>
         <v>0.84233366300000012</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="3">
         <v>0.83866700000000005</v>
       </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
         <v>3.3333299999999998E-3</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="3">
         <v>3.33333E-4</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="3">
         <f>I4+J4+K4</f>
         <v>0.85600030000000005</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="3">
         <v>0.83566700000000005</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="3">
         <v>1.7333299999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5">
+      <c r="A5" s="8"/>
+      <c r="B5" s="2">
         <v>2000</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="3">
         <f t="shared" ref="C5:C22" si="0">D5+E5+F5+G5</f>
         <v>1.6253333299999999</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="3">
         <v>1.621</v>
       </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
         <v>3.3333299999999998E-3</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="3">
         <v>1E-3</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="3">
         <f t="shared" ref="H5:H22" si="1">I5+J5+K5</f>
         <v>1.6393366700000001</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="3">
         <v>1.5916699999999999</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="3">
         <v>3.6666699999999999E-3</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="3">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5">
+      <c r="A6" s="8"/>
+      <c r="B6" s="2">
         <v>4000</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="3">
         <f t="shared" si="0"/>
         <v>7.9633366700000003</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="3">
         <v>7.9546700000000001</v>
       </c>
-      <c r="E6" s="10">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
         <v>7.6666700000000004E-3</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="3">
         <v>1E-3</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="3">
         <f t="shared" si="1"/>
         <v>7.64266633</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="3">
         <v>7.5190000000000001</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="3">
         <v>9.3333300000000008E-3</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="3">
         <v>0.114333</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5">
+      <c r="A7" s="8"/>
+      <c r="B7" s="2">
         <v>6000</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="3">
         <f t="shared" si="0"/>
         <v>20.868633299999999</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="3">
         <v>20.8553</v>
       </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
         <v>1.1333299999999999E-2</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="3">
         <v>2E-3</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="3">
         <f t="shared" si="1"/>
         <v>19.9603337</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="3">
         <v>19.581</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="3">
         <v>1.0666699999999999E-2</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="3">
         <v>0.36866700000000002</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5">
+      <c r="A8" s="8"/>
+      <c r="B8" s="2">
         <v>8000</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="3">
         <f t="shared" si="0"/>
         <v>61.518966670000005</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="3">
         <v>61.497300000000003</v>
       </c>
-      <c r="E8" s="10">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>1.9E-2</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="3">
         <v>2.6666699999999999E-3</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="3">
         <f t="shared" si="1"/>
         <v>54.678633300000001</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="3">
         <v>54.193300000000001</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="3">
         <v>1.9333300000000001E-2</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="3">
         <v>0.46600000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="2">
         <v>500</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="3">
         <f t="shared" si="0"/>
         <v>0.105</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="3">
         <v>0.104</v>
       </c>
-      <c r="E9" s="10">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>1E-3</v>
       </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <f t="shared" si="1"/>
         <v>0.12200029999999999</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="3">
         <v>0.103667</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="3">
         <v>2E-3</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="3">
         <v>1.6333299999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="5">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2">
         <v>1000</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="3">
         <f t="shared" si="0"/>
         <v>0.6903333330000001</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="3">
         <v>0.68700000000000006</v>
       </c>
-      <c r="E10" s="10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="3">
         <v>3.33333E-4</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="3">
         <f t="shared" si="1"/>
         <v>0.72666700000000006</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="3">
         <v>0.67866700000000002</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="3">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="5">
+      <c r="A11" s="8"/>
+      <c r="B11" s="2">
         <v>2000</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="3">
         <f t="shared" si="0"/>
         <v>3.8453366629999999</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="3">
         <v>3.8396699999999999</v>
       </c>
-      <c r="E11" s="10">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
         <v>5.3333299999999998E-3</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="3">
         <v>3.33333E-4</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="3">
         <f t="shared" si="1"/>
         <v>3.87700333</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="3">
         <v>3.8016700000000001</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="3">
         <v>5.3333299999999998E-3</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="5">
+      <c r="A12" s="8"/>
+      <c r="B12" s="2">
         <v>3000</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="3">
         <f t="shared" si="0"/>
         <v>8.7593299999999985</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="3">
         <v>8.7503299999999999</v>
       </c>
-      <c r="E12" s="10">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="3">
         <v>1E-3</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="3">
         <f t="shared" si="1"/>
         <v>8.654666670000001</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="3">
         <v>8.4920000000000009</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="3">
         <v>6.6666700000000004E-3</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="3">
         <v>0.156</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="5">
+      <c r="A13" s="8"/>
+      <c r="B13" s="2">
         <v>4000</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="3">
         <f t="shared" si="0"/>
         <v>16.493666700000002</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="3">
         <v>16.481999999999999</v>
       </c>
-      <c r="E13" s="10">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
         <v>1.0666699999999999E-2</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="3">
         <v>1E-3</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="3">
         <f t="shared" si="1"/>
         <v>16.326333000000002</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="3">
         <v>16.093</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="3">
         <v>0.01</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="3">
         <v>0.223333</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="5">
         <v>1000</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="3">
         <f t="shared" si="0"/>
         <v>2.4666696000000005E-2</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="3">
         <v>1.8666700000000001E-2</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="7">
         <v>3.33333E-4</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="3">
         <v>5.3333299999999998E-3</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="3">
         <v>3.33333E-4</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="3">
         <f t="shared" si="1"/>
         <v>0.22933340000000002</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="3">
         <v>1.5666699999999999E-2</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="3">
         <v>1.0666699999999999E-2</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="3">
         <v>0.20300000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="9">
+      <c r="A15" s="8"/>
+      <c r="B15" s="5">
         <v>5000</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="3">
         <f t="shared" si="0"/>
         <v>0.9160003630000001</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="3">
         <v>0.83666700000000005</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="7">
         <v>3.33333E-4</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="3">
         <v>7.7666700000000005E-2</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="3">
         <v>1.33333E-3</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="3">
         <f t="shared" si="1"/>
         <v>0.91566630000000004</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="3">
         <v>0.78</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="3">
         <v>1.03333E-2</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="3">
         <v>0.125333</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="9">
+      <c r="A16" s="8"/>
+      <c r="B16" s="5">
         <v>10000</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="3">
         <f t="shared" si="0"/>
         <v>3.1413330029999997</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="3">
         <v>2.6949999999999998</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="7">
         <v>3.33333E-4</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="3">
         <v>0.44233299999999998</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="3">
         <v>3.6666699999999999E-3</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="3">
         <f t="shared" si="1"/>
         <v>2.5793296999999997</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="3">
         <v>2.29833</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="3">
         <v>1.0666699999999999E-2</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="3">
         <v>0.27033299999999999</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="9">
+      <c r="A17" s="8"/>
+      <c r="B17" s="5">
         <v>30000</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="3">
         <f t="shared" si="0"/>
         <v>19.732300032999998</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="3">
         <v>19.700299999999999</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="7">
         <v>3.33333E-4</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="3">
         <v>2.2666700000000001E-2</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="3">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="3">
         <f t="shared" si="1"/>
         <v>17.3680333</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="3">
         <v>15.9847</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="3">
         <v>2.1333299999999999E-2</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="3">
         <v>1.3620000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="9">
+      <c r="A18" s="8"/>
+      <c r="B18" s="5">
         <v>60000</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="3">
         <f t="shared" si="0"/>
         <v>63.538333299999991</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="3">
         <v>63.472999999999999</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="7">
         <v>1E-3</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="3">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="3">
         <v>2.0333299999999999E-2</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="3">
         <f t="shared" si="1"/>
         <v>49.255969999999998</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="3">
         <v>46.744300000000003</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="3">
         <v>4.7E-2</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="3">
         <v>2.4646699999999999</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="5">
         <v>1000</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="3">
         <f t="shared" si="0"/>
         <v>2.7113333329999998</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="3">
         <v>2.6960000000000002</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="7">
         <v>3.33333E-4</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="3">
         <v>1E-3</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="3">
         <f t="shared" si="1"/>
         <v>1.6536629999999999</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="3">
         <v>1.47533</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="3">
         <v>0.17533299999999999</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="9">
+      <c r="A20" s="8"/>
+      <c r="B20" s="5">
         <v>5000</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="3">
         <f t="shared" si="0"/>
         <v>70.497333333</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="3">
         <v>70.384</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="7">
         <v>3.33333E-4</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="3">
         <v>0.111</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="3">
         <v>2E-3</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="3">
         <f t="shared" si="1"/>
         <v>70.735366999999997</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="3">
         <v>60.991700000000002</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="3">
         <v>0.11466700000000001</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="3">
         <v>9.6289999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="9">
+      <c r="A21" s="8"/>
+      <c r="B21" s="5">
         <v>10000</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="3">
         <f t="shared" si="0"/>
         <v>960.28233366299992</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="3">
         <v>959.87900000000002</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="7">
         <v>3.33333E-4</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="3">
         <v>0.39666699999999999</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="3">
         <v>6.3333299999999999E-3</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="3">
         <f t="shared" si="1"/>
         <v>437.99033299999996</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="3">
         <v>430.565</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="3">
         <v>0.41933300000000001</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="3">
         <v>7.0060000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="9">
+      <c r="A22" s="8"/>
+      <c r="B22" s="5">
         <v>30000</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="3">
         <f t="shared" si="0"/>
         <v>10601.534333333</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="3">
         <v>10601.5</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="7">
         <v>3.33333E-4</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="3">
         <v>2.23333E-2</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="3">
         <v>1.16667E-2</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="3">
         <f t="shared" si="1"/>
         <v>4696.2709999999997</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="3">
         <v>4694.96</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="3">
         <v>2.3E-2</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="3">
         <v>1.288</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="9">
+      <c r="A23" s="8"/>
+      <c r="B23" s="5">
         <v>60000</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="4" t="s">
         <v>216</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="C2:C3"/>
@@ -29279,6 +29280,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
     <mergeCell ref="A4:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29310,721 +29316,726 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="3.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>207</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+        <v>301</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
       <c r="G1" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+        <v>302</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="11" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="2">
         <v>1000</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <f>D4+E4+F4</f>
         <v>7.2426666600000003</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="3">
         <v>7.2350000000000003</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="3">
         <v>6.3333299999999999E-3</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="3">
         <v>1.33333E-3</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="3">
         <f>H4+I4+J4</f>
         <v>1.66999667</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="3">
         <v>1.64333</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="3">
         <v>5.6666700000000004E-3</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="3">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5">
+      <c r="A5" s="8"/>
+      <c r="B5" s="2">
         <v>2000</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="3">
         <f t="shared" ref="C5:C16" si="0">D5+E5+F5</f>
         <v>48.156333330000002</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="3">
         <v>48.151000000000003</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="3">
         <v>4.3333299999999998E-3</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="3">
         <v>1E-3</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="3">
         <f t="shared" ref="G5:G16" si="1">H5+I5+J5</f>
         <v>6.4936700300000005</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="3">
         <v>6.4466700000000001</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="3">
         <v>3.3333299999999998E-3</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="3">
         <v>4.3666700000000003E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5">
+      <c r="A6" s="8"/>
+      <c r="B6" s="2">
         <v>4000</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="3">
         <f t="shared" si="0"/>
         <v>285.98599999999993</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="3">
         <v>285.97699999999998</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="3">
         <v>1E-3</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="3">
         <f t="shared" si="1"/>
         <v>27.190299669999998</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="3">
         <v>27.067299999999999</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="3">
         <v>7.6666700000000004E-3</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="3">
         <v>0.115333</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5">
+      <c r="A7" s="8"/>
+      <c r="B7" s="2">
         <v>6000</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="3">
         <f t="shared" si="0"/>
         <v>1103.2426666700001</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="3">
         <v>1103.23</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="3">
         <v>1.6666700000000001E-3</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="3">
         <f t="shared" si="1"/>
         <v>62.666966299999991</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="3">
         <v>62.286299999999997</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="3">
         <v>1.1333299999999999E-2</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="3">
         <v>0.36933300000000002</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5">
+      <c r="A8" s="8"/>
+      <c r="B8" s="2">
         <v>8000</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="3">
         <f t="shared" si="0"/>
         <v>2183.9816666699999</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="3">
         <v>2183.96</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="3">
         <v>1.9E-2</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="3">
         <v>2.6666699999999999E-3</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="3">
         <f t="shared" si="1"/>
         <v>113.60166700000001</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="3">
         <v>113.117</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="3">
         <v>1.9E-2</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="3">
         <v>0.465667</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="2">
         <v>500</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="3">
         <f t="shared" si="0"/>
         <v>1.2506699999999999</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="3">
         <v>1.2486699999999999</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="3">
         <v>2E-3</v>
       </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <f t="shared" si="1"/>
         <v>0.53233333000000005</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="3">
         <v>0.51500000000000001</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="3">
         <v>1.33333E-3</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="3">
         <v>1.6E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="5">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2">
         <v>1000</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="3">
         <f t="shared" si="0"/>
         <v>7.3683300000000003</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="3">
         <v>7.3653300000000002</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <f t="shared" si="1"/>
         <v>2.1173333000000003</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="3">
         <v>2.0710000000000002</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="3">
         <v>4.3333299999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="5">
+      <c r="A11" s="8"/>
+      <c r="B11" s="2">
         <v>2000</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="3">
         <f t="shared" si="0"/>
         <v>33.969299996999993</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="3">
         <v>33.963299999999997</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="3">
         <v>5.3333299999999998E-3</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="3">
         <v>6.6666700000000002E-4</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="3">
         <f t="shared" si="1"/>
         <v>8.9566700299999997</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="3">
         <v>8.8806700000000003</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="3">
         <v>5.3333299999999998E-3</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="3">
         <v>7.0666699999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="5">
+      <c r="A12" s="8"/>
+      <c r="B12" s="2">
         <v>3000</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="3">
         <f t="shared" si="0"/>
         <v>124.03166667000001</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="3">
         <v>124.023</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="3">
         <v>7.6666700000000004E-3</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="3">
         <v>1E-3</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="3">
         <f t="shared" si="1"/>
         <v>20.265667000000001</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="3">
         <v>20.105</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="3">
         <v>0.153667</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="5">
+      <c r="A13" s="8"/>
+      <c r="B13" s="2">
         <v>4000</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="3">
         <f t="shared" si="0"/>
         <v>210.55099999999999</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="3">
         <v>210.53899999999999</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="3">
         <v>1E-3</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="3">
         <f t="shared" si="1"/>
         <v>36.297033299999995</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="3">
         <v>36.0627</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="3">
         <v>1.03333E-2</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="3">
         <v>0.224</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="5">
         <v>1000</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="3">
         <f t="shared" si="0"/>
         <v>5.7439967000000003</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="3">
         <v>5.7153299999999998</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="3">
         <v>2.7666699999999999E-2</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="3">
         <v>1E-3</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="3">
         <f t="shared" si="1"/>
         <v>7.2553299999999998</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="3">
         <v>6.6623299999999999</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="3">
         <v>0.56799999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="9">
+      <c r="A15" s="8"/>
+      <c r="B15" s="5">
         <v>5000</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="3">
         <f t="shared" si="0"/>
         <v>656.09266666999997</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="3">
         <v>656.08699999999999</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="3">
         <v>1.6666700000000001E-3</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="3">
         <f t="shared" si="1"/>
         <v>748.39800000000002</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="3">
         <v>748.23400000000004</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="3">
         <v>0.16</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="9">
+      <c r="A16" s="8"/>
+      <c r="B16" s="5">
         <v>10000</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="3">
         <f t="shared" si="0"/>
         <v>4855.7906666699992</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="3">
         <v>4855.78</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="3">
         <v>7.6666700000000004E-3</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="3">
         <f t="shared" si="1"/>
         <v>4611.0773333299994</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="3">
         <v>4610.71</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="3">
         <v>7.3333299999999999E-3</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="3">
         <v>0.36</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="9">
+      <c r="A17" s="8"/>
+      <c r="B17" s="5">
         <v>30000</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="4" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="9">
+      <c r="A18" s="8"/>
+      <c r="B18" s="5">
         <v>60000</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="4" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="5">
         <v>1000</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="3">
         <f>D19+E19+F19</f>
         <v>5.1423367000000004</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="3">
         <v>5.1156699999999997</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="3">
         <v>2.5666700000000001E-2</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="3">
         <v>1E-3</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="3">
         <f>H19+I19+J19</f>
         <v>7.4323337</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="3">
         <v>6.8259999999999996</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="3">
         <v>2.5666700000000001E-2</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="3">
         <v>0.58066700000000004</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="9">
+      <c r="A20" s="8"/>
+      <c r="B20" s="5">
         <v>5000</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="3">
         <f t="shared" ref="C20:C21" si="2">D20+E20+F20</f>
         <v>583.92066666999995</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="3">
         <v>583.91499999999996</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="3">
         <v>1.6666700000000001E-3</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="3">
         <f t="shared" ref="G20:G21" si="3">H20+I20+J20</f>
         <v>733.81533366999997</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="3">
         <v>733.654</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="3">
         <v>3.6666699999999999E-3</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="3">
         <v>0.157667</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="9">
+      <c r="A21" s="8"/>
+      <c r="B21" s="5">
         <v>10000</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="3">
         <f t="shared" si="2"/>
         <v>4406.160333329999</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="3">
         <v>4406.1499999999996</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="3">
         <v>3.3333299999999998E-3</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="3">
         <f t="shared" si="3"/>
         <v>4378.3213333299991</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="3">
         <v>4378.1099999999997</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="3">
         <v>7.3333299999999999E-3</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="3">
         <v>0.20399999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="9">
+      <c r="A22" s="8"/>
+      <c r="B22" s="5">
         <v>30000</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="4" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="9">
+      <c r="A23" s="8"/>
+      <c r="B23" s="5">
         <v>60000</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="4" t="s">
         <v>216</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
@@ -30036,11 +30047,6 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30071,709 +30077,709 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="5" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="3.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="11" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="2">
         <v>1000</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <f>D4+E4+F4</f>
         <v>128.110333</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="3">
         <v>124.61</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="3">
         <v>0.25533299999999998</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="3">
         <v>3.2450000000000001</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="3">
         <f>H4+I4+J4</f>
         <v>1.66999667</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="3">
         <v>1.64333</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="3">
         <v>5.6666700000000004E-3</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="3">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5">
+      <c r="A5" s="8"/>
+      <c r="B5" s="2">
         <v>2000</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="3">
         <f t="shared" ref="G5:G16" si="0">H5+I5+J5</f>
         <v>6.4936700300000005</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="3">
         <v>6.4466700000000001</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="3">
         <v>3.3333299999999998E-3</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="3">
         <v>4.3666700000000003E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5">
+      <c r="A6" s="8"/>
+      <c r="B6" s="2">
         <v>4000</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="3">
         <f t="shared" si="0"/>
         <v>27.190299669999998</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="3">
         <v>27.067299999999999</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="3">
         <v>7.6666700000000004E-3</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="3">
         <v>0.115333</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5">
+      <c r="A7" s="8"/>
+      <c r="B7" s="2">
         <v>6000</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>62.666966299999991</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="3">
         <v>62.286299999999997</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="3">
         <v>1.1333299999999999E-2</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="3">
         <v>0.36933300000000002</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5">
+      <c r="A8" s="8"/>
+      <c r="B8" s="2">
         <v>8000</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>113.60166700000001</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="3">
         <v>113.117</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="3">
         <v>1.9E-2</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="3">
         <v>0.465667</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="2">
         <v>500</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="3">
         <f>D9+E9+F9</f>
         <v>31.195330000000002</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="3">
         <v>29.71</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="3">
         <v>0.11600000000000001</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="3">
         <v>1.3693299999999999</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>0.53233333000000005</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="3">
         <v>0.51500000000000001</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="3">
         <v>1.33333E-3</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="3">
         <v>1.6E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="5">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2">
         <v>1000</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="3">
         <f>D10+E10+F10</f>
         <v>126.403333</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="3">
         <v>123.06</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="3">
         <v>0.23333300000000001</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="3">
         <v>3.11</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>2.1173333000000003</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="3">
         <v>2.0710000000000002</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="3">
         <v>4.3333299999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="5">
+      <c r="A11" s="8"/>
+      <c r="B11" s="2">
         <v>2000</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>8.9566700299999997</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="3">
         <v>8.8806700000000003</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="3">
         <v>5.3333299999999998E-3</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="3">
         <v>7.0666699999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="5">
+      <c r="A12" s="8"/>
+      <c r="B12" s="2">
         <v>3000</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="3">
         <f t="shared" si="0"/>
         <v>20.265667000000001</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="3">
         <v>20.105</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="3">
         <v>0.153667</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="5">
+      <c r="A13" s="8"/>
+      <c r="B13" s="2">
         <v>4000</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="3">
         <f t="shared" si="0"/>
         <v>36.297033299999995</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="3">
         <v>36.0627</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="3">
         <v>1.03333E-2</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="3">
         <v>0.224</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="5">
         <v>1000</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="3">
         <f>D14+E14+F14</f>
         <v>7.2553299999999998</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="3">
         <v>6.6623299999999999</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="3">
         <v>0.56799999999999995</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="3">
         <f t="shared" si="0"/>
         <v>5.852003400000001</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="3">
         <v>5.7956700000000003</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="3">
         <v>1.76667E-2</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="3">
         <v>3.8666699999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="9">
+      <c r="A15" s="8"/>
+      <c r="B15" s="5">
         <v>5000</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="3">
         <f t="shared" ref="C15:C16" si="1">D15+E15+F15</f>
         <v>748.39800000000002</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="3">
         <v>748.23400000000004</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="3">
         <v>0.16</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="3">
         <f t="shared" si="0"/>
         <v>473.63600000000002</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="3">
         <v>473.303</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="3">
         <v>0.125</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="3">
         <v>0.20799999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="9">
+      <c r="A16" s="8"/>
+      <c r="B16" s="5">
         <v>10000</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="3">
         <f t="shared" si="1"/>
         <v>4611.0773333299994</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="3">
         <v>4610.71</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="3">
         <v>7.3333299999999999E-3</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="3">
         <v>0.36</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="3">
         <f t="shared" si="0"/>
         <v>3212.8690000000001</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="3">
         <v>3212.66</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="3">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="3">
         <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="9">
+      <c r="A17" s="8"/>
+      <c r="B17" s="5">
         <v>30000</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="4" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="9">
+      <c r="A18" s="8"/>
+      <c r="B18" s="5">
         <v>60000</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="4" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="5">
         <v>1000</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="3">
         <f>D19+E19+F19</f>
         <v>7.4323337</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="3">
         <v>6.8259999999999996</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="3">
         <v>2.5666700000000001E-2</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="3">
         <v>0.58066700000000004</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="3">
         <f>H19+I19+J19</f>
         <v>1.0503366700000001</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="3">
         <v>1.0236700000000001</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="3">
         <v>6.6666700000000004E-3</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="3">
         <v>0.02</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="9">
+      <c r="A20" s="8"/>
+      <c r="B20" s="5">
         <v>5000</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="3">
         <f t="shared" ref="C20:C21" si="2">D20+E20+F20</f>
         <v>733.81533366999997</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="3">
         <v>733.654</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="3">
         <v>3.6666699999999999E-3</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="3">
         <v>0.157667</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="3">
         <f t="shared" ref="G20:G21" si="3">H20+I20+J20</f>
         <v>26.026966699999999</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="3">
         <v>25.950299999999999</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="3">
         <v>6.9666699999999998E-2</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="9">
+      <c r="A21" s="8"/>
+      <c r="B21" s="5">
         <v>10000</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="3">
         <f t="shared" si="2"/>
         <v>4378.3213333299991</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="3">
         <v>4378.1099999999997</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="3">
         <v>7.3333299999999999E-3</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="3">
         <v>0.20399999999999999</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="3">
         <f t="shared" si="3"/>
         <v>107.034667</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="3">
         <v>106.864</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="3">
         <v>0.156667</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="9">
+      <c r="A22" s="8"/>
+      <c r="B22" s="5">
         <v>30000</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="4" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="9">
+      <c r="A23" s="8"/>
+      <c r="B23" s="5">
         <v>60000</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="4" t="s">
         <v>216</v>
       </c>
     </row>

--- a/documents/Wykresy 2.xlsx
+++ b/documents/Wykresy 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="846" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="846" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7606" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7690" uniqueCount="754">
   <si>
     <t>Algorithm Execution [s]</t>
   </si>
@@ -2702,6 +2702,18 @@
   </si>
   <si>
     <t>DBSCAN-POINTS_ELIMINATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> logs/run_report_2013_2_2_23_58_12.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> logs/run_report_2013_2_3_0_2_49.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> logs/run_report_2013_2_3_0_18_24.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> logs/run_report_2013_2_3_2_39_32.txt</t>
   </si>
 </sst>
 </file>
@@ -2857,6 +2869,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3153,11 +3166,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="36586624"/>
-        <c:axId val="36588544"/>
+        <c:axId val="131359872"/>
+        <c:axId val="131361792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="36586624"/>
+        <c:axId val="131359872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3180,18 +3193,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36588544"/>
+        <c:crossAx val="131361792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="36588544"/>
+        <c:axId val="131361792"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3215,19 +3229,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36586624"/>
+        <c:crossAx val="131359872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3513,11 +3529,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="171873024"/>
-        <c:axId val="171874944"/>
+        <c:axId val="182633216"/>
+        <c:axId val="182635136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="171873024"/>
+        <c:axId val="182633216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3547,12 +3563,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171874944"/>
+        <c:crossAx val="182635136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="171874944"/>
+        <c:axId val="182635136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3582,7 +3598,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171873024"/>
+        <c:crossAx val="182633216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3875,11 +3891,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="171939328"/>
-        <c:axId val="171941248"/>
+        <c:axId val="182695424"/>
+        <c:axId val="182697344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="171939328"/>
+        <c:axId val="182695424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3909,12 +3925,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171941248"/>
+        <c:crossAx val="182697344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="171941248"/>
+        <c:axId val="182697344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3944,7 +3960,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171939328"/>
+        <c:crossAx val="182695424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4237,11 +4253,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="174987520"/>
-        <c:axId val="175001984"/>
+        <c:axId val="183064832"/>
+        <c:axId val="183079296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="174987520"/>
+        <c:axId val="183064832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4271,12 +4287,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175001984"/>
+        <c:crossAx val="183079296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="175001984"/>
+        <c:axId val="183079296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4306,7 +4322,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174987520"/>
+        <c:crossAx val="183064832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4501,16 +4517,16 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.5423336700000001</c:v>
+                  <c:v>0.8209997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>255.92999699999999</c:v>
+                  <c:v>23.715666700000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>131.30700300000001</c:v>
+                  <c:v>113.02933300000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1895.801667</c:v>
+                  <c:v>1945.8146669999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4575,11 +4591,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="175037440"/>
-        <c:axId val="175043712"/>
+        <c:axId val="183114752"/>
+        <c:axId val="183116928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="175037440"/>
+        <c:axId val="183114752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4609,12 +4625,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175043712"/>
+        <c:crossAx val="183116928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="175043712"/>
+        <c:axId val="183116928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4644,7 +4660,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175037440"/>
+        <c:crossAx val="183114752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4694,11 +4710,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="173635072"/>
-        <c:axId val="173636608"/>
+        <c:axId val="183154176"/>
+        <c:axId val="183155712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="173635072"/>
+        <c:axId val="183154176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4707,12 +4723,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173636608"/>
+        <c:crossAx val="183155712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="173636608"/>
+        <c:axId val="183155712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4721,7 +4737,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173635072"/>
+        <c:crossAx val="183154176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5013,11 +5029,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="175068288"/>
-        <c:axId val="175070208"/>
+        <c:axId val="183207040"/>
+        <c:axId val="183208960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="175068288"/>
+        <c:axId val="183207040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5047,12 +5063,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175070208"/>
+        <c:crossAx val="183208960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="175070208"/>
+        <c:axId val="183208960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5082,7 +5098,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175068288"/>
+        <c:crossAx val="183207040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5375,11 +5391,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="175105536"/>
-        <c:axId val="175107456"/>
+        <c:axId val="185161216"/>
+        <c:axId val="185163136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="175105536"/>
+        <c:axId val="185161216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5409,12 +5425,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175107456"/>
+        <c:crossAx val="185163136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="175107456"/>
+        <c:axId val="185163136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5444,7 +5460,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175105536"/>
+        <c:crossAx val="185161216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5737,11 +5753,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="176203648"/>
-        <c:axId val="176218112"/>
+        <c:axId val="185198464"/>
+        <c:axId val="184946688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="176203648"/>
+        <c:axId val="185198464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5771,12 +5787,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176218112"/>
+        <c:crossAx val="184946688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="176218112"/>
+        <c:axId val="184946688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5806,7 +5822,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176203648"/>
+        <c:crossAx val="185198464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6001,16 +6017,16 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.5423336700000001</c:v>
+                  <c:v>0.8209997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>255.92999699999999</c:v>
+                  <c:v>23.715666700000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>131.30700300000001</c:v>
+                  <c:v>113.02933300000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1895.801667</c:v>
+                  <c:v>1945.8146669999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6075,11 +6091,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="176318720"/>
-        <c:axId val="176320896"/>
+        <c:axId val="184973568"/>
+        <c:axId val="184975744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="176318720"/>
+        <c:axId val="184973568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6109,12 +6125,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176320896"/>
+        <c:crossAx val="184975744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="176320896"/>
+        <c:axId val="184975744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6144,7 +6160,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176318720"/>
+        <c:crossAx val="184973568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6549,11 +6565,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="177439488"/>
-        <c:axId val="177441408"/>
+        <c:axId val="172401408"/>
+        <c:axId val="172403328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="177439488"/>
+        <c:axId val="172401408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6583,12 +6599,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177441408"/>
+        <c:crossAx val="172403328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="177441408"/>
+        <c:axId val="172403328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6618,7 +6634,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177439488"/>
+        <c:crossAx val="172401408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6670,6 +6686,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6966,11 +6983,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="134032000"/>
-        <c:axId val="134038272"/>
+        <c:axId val="172640896"/>
+        <c:axId val="172647168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="134032000"/>
+        <c:axId val="172640896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6993,18 +7010,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134038272"/>
+        <c:crossAx val="172647168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="134038272"/>
+        <c:axId val="172647168"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7028,19 +7046,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134032000"/>
+        <c:crossAx val="172640896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7438,11 +7458,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="163462144"/>
-        <c:axId val="163468416"/>
+        <c:axId val="185097216"/>
+        <c:axId val="185111680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="163462144"/>
+        <c:axId val="185097216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7472,12 +7492,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163468416"/>
+        <c:crossAx val="185111680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="163468416"/>
+        <c:axId val="185111680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7507,7 +7527,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163462144"/>
+        <c:crossAx val="185097216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7912,11 +7932,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="177477120"/>
-        <c:axId val="177479040"/>
+        <c:axId val="172570112"/>
+        <c:axId val="172572032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="177477120"/>
+        <c:axId val="172570112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7946,12 +7966,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177479040"/>
+        <c:crossAx val="172572032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="177479040"/>
+        <c:axId val="172572032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7981,7 +8001,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177477120"/>
+        <c:crossAx val="172570112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8350,11 +8370,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="177528832"/>
-        <c:axId val="177530752"/>
+        <c:axId val="185470976"/>
+        <c:axId val="185472896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="177528832"/>
+        <c:axId val="185470976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8384,12 +8404,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177530752"/>
+        <c:crossAx val="185472896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="177530752"/>
+        <c:axId val="185472896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8419,7 +8439,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177528832"/>
+        <c:crossAx val="185470976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8469,11 +8489,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="177821952"/>
-        <c:axId val="177156096"/>
+        <c:axId val="185489664"/>
+        <c:axId val="185212928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="177821952"/>
+        <c:axId val="185489664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8482,12 +8502,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177156096"/>
+        <c:crossAx val="185212928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="177156096"/>
+        <c:axId val="185212928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8496,7 +8516,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177821952"/>
+        <c:crossAx val="185489664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8900,11 +8920,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="177204608"/>
-        <c:axId val="177206784"/>
+        <c:axId val="185281920"/>
+        <c:axId val="185284096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="177204608"/>
+        <c:axId val="185281920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8934,12 +8954,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177206784"/>
+        <c:crossAx val="185284096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="177206784"/>
+        <c:axId val="185284096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8969,7 +8989,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177204608"/>
+        <c:crossAx val="185281920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9374,11 +9394,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="177251840"/>
-        <c:axId val="177253760"/>
+        <c:axId val="185312768"/>
+        <c:axId val="185314688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="177251840"/>
+        <c:axId val="185312768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9408,12 +9428,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177253760"/>
+        <c:crossAx val="185314688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="177253760"/>
+        <c:axId val="185314688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9443,7 +9463,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177251840"/>
+        <c:crossAx val="185312768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9812,11 +9832,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="177360256"/>
-        <c:axId val="177370624"/>
+        <c:axId val="185367936"/>
+        <c:axId val="185370112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="177360256"/>
+        <c:axId val="185367936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9846,12 +9866,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177370624"/>
+        <c:crossAx val="185370112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="177370624"/>
+        <c:axId val="185370112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9881,7 +9901,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177360256"/>
+        <c:crossAx val="185367936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10286,11 +10306,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="178390528"/>
-        <c:axId val="178392448"/>
+        <c:axId val="185415168"/>
+        <c:axId val="185417088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="178390528"/>
+        <c:axId val="185415168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10320,12 +10340,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178392448"/>
+        <c:crossAx val="185417088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178392448"/>
+        <c:axId val="185417088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10355,7 +10375,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178390528"/>
+        <c:crossAx val="185415168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10648,11 +10668,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="179652864"/>
-        <c:axId val="179663232"/>
+        <c:axId val="191207680"/>
+        <c:axId val="191213952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179652864"/>
+        <c:axId val="191207680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10682,12 +10702,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179663232"/>
+        <c:crossAx val="191213952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179663232"/>
+        <c:axId val="191213952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10722,7 +10742,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179652864"/>
+        <c:crossAx val="191207680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11015,11 +11035,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="179579904"/>
-        <c:axId val="179590272"/>
+        <c:axId val="191261696"/>
+        <c:axId val="191263872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179579904"/>
+        <c:axId val="191261696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11049,12 +11069,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179590272"/>
+        <c:crossAx val="191263872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179590272"/>
+        <c:axId val="191263872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11089,7 +11109,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179579904"/>
+        <c:crossAx val="191261696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11141,6 +11161,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11425,11 +11446,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="134082944"/>
-        <c:axId val="134084864"/>
+        <c:axId val="174653824"/>
+        <c:axId val="174655744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="134082944"/>
+        <c:axId val="174653824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11452,18 +11473,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134084864"/>
+        <c:crossAx val="174655744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="134084864"/>
+        <c:axId val="174655744"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -11487,19 +11509,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134082944"/>
+        <c:crossAx val="174653824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11785,11 +11809,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="179617792"/>
-        <c:axId val="179619712"/>
+        <c:axId val="191291392"/>
+        <c:axId val="191293312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179617792"/>
+        <c:axId val="191291392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11819,12 +11843,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179619712"/>
+        <c:crossAx val="191293312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179619712"/>
+        <c:axId val="191293312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11859,7 +11883,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179617792"/>
+        <c:crossAx val="191291392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12004,16 +12028,16 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.54267</c:v>
+                  <c:v>0.8209997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>255.93</c:v>
+                  <c:v>23.715666700000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>128.98500000000001</c:v>
+                  <c:v>113.02933300000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1895.77</c:v>
+                  <c:v>1945.8146669999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12128,11 +12152,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="179733248"/>
-        <c:axId val="179735168"/>
+        <c:axId val="195015424"/>
+        <c:axId val="195017344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179733248"/>
+        <c:axId val="195015424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12162,12 +12186,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179735168"/>
+        <c:crossAx val="195017344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179735168"/>
+        <c:axId val="195017344"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -12203,13 +12227,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179733248"/>
+        <c:crossAx val="195015424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -12253,11 +12277,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207887360"/>
-        <c:axId val="207905536"/>
+        <c:axId val="193412096"/>
+        <c:axId val="193417984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207887360"/>
+        <c:axId val="193412096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12266,12 +12290,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207905536"/>
+        <c:crossAx val="193417984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207905536"/>
+        <c:axId val="193417984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12280,7 +12304,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207887360"/>
+        <c:crossAx val="193412096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12572,11 +12596,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="149476864"/>
-        <c:axId val="149478784"/>
+        <c:axId val="193452672"/>
+        <c:axId val="193458944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="149476864"/>
+        <c:axId val="193452672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12606,12 +12630,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149478784"/>
+        <c:crossAx val="193458944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="149478784"/>
+        <c:axId val="193458944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12646,7 +12670,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149476864"/>
+        <c:crossAx val="193452672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12939,11 +12963,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="162880128"/>
-        <c:axId val="162882304"/>
+        <c:axId val="193481728"/>
+        <c:axId val="193496192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="162880128"/>
+        <c:axId val="193481728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12973,12 +12997,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162882304"/>
+        <c:crossAx val="193496192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="162882304"/>
+        <c:axId val="193496192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13013,7 +13037,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162880128"/>
+        <c:crossAx val="193481728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13158,16 +13182,16 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.54267</c:v>
+                  <c:v>0.8209997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>255.93</c:v>
+                  <c:v>23.715666700000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>128.98500000000001</c:v>
+                  <c:v>113.02933300000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1895.77</c:v>
+                  <c:v>1945.8146669999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13282,11 +13306,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="173864448"/>
-        <c:axId val="173866368"/>
+        <c:axId val="193535360"/>
+        <c:axId val="193545728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="173864448"/>
+        <c:axId val="193535360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13316,12 +13340,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173866368"/>
+        <c:crossAx val="193545728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="173866368"/>
+        <c:axId val="193545728"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -13357,7 +13381,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173864448"/>
+        <c:crossAx val="193535360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13650,11 +13674,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="175900928"/>
-        <c:axId val="176013696"/>
+        <c:axId val="193585152"/>
+        <c:axId val="193587072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="175900928"/>
+        <c:axId val="193585152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13684,12 +13708,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176013696"/>
+        <c:crossAx val="193587072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="176013696"/>
+        <c:axId val="193587072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13724,7 +13748,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175900928"/>
+        <c:crossAx val="193585152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13776,7 +13800,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -13881,11 +13904,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="179102080"/>
-        <c:axId val="179104000"/>
+        <c:axId val="193641472"/>
+        <c:axId val="193651840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179102080"/>
+        <c:axId val="193641472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13908,19 +13931,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179104000"/>
+        <c:crossAx val="193651840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179104000"/>
+        <c:axId val="193651840"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -13944,21 +13966,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179102080"/>
+        <c:crossAx val="193641472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14003,7 +14023,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -14114,11 +14133,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="179121536"/>
-        <c:axId val="179136000"/>
+        <c:axId val="194816256"/>
+        <c:axId val="194818432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179121536"/>
+        <c:axId val="194816256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14141,19 +14160,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179136000"/>
+        <c:crossAx val="194818432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179136000"/>
+        <c:axId val="194818432"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -14177,21 +14195,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179121536"/>
+        <c:crossAx val="194816256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14236,7 +14252,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -14365,11 +14380,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="179153536"/>
-        <c:axId val="179159808"/>
+        <c:axId val="194921984"/>
+        <c:axId val="194923904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179153536"/>
+        <c:axId val="194921984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14392,19 +14407,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179159808"/>
+        <c:crossAx val="194923904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179159808"/>
+        <c:axId val="194923904"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -14428,21 +14442,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179153536"/>
+        <c:crossAx val="194921984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14487,6 +14499,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -14753,11 +14766,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="148008320"/>
-        <c:axId val="148022784"/>
+        <c:axId val="174692224"/>
+        <c:axId val="174706688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148008320"/>
+        <c:axId val="174692224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14780,18 +14793,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148022784"/>
+        <c:crossAx val="174706688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148022784"/>
+        <c:axId val="174706688"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -14815,19 +14829,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148008320"/>
+        <c:crossAx val="174692224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14872,7 +14888,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -14995,11 +15010,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="179201920"/>
-        <c:axId val="179208192"/>
+        <c:axId val="194958080"/>
+        <c:axId val="194960000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179201920"/>
+        <c:axId val="194958080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15022,19 +15037,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179208192"/>
+        <c:crossAx val="194960000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179208192"/>
+        <c:axId val="194960000"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -15063,21 +15077,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179201920"/>
+        <c:crossAx val="194958080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -15120,11 +15132,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="179249536"/>
-        <c:axId val="179251072"/>
+        <c:axId val="194849792"/>
+        <c:axId val="194892544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179249536"/>
+        <c:axId val="194849792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15133,12 +15145,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179251072"/>
+        <c:crossAx val="194892544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179251072"/>
+        <c:axId val="194892544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15147,7 +15159,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179249536"/>
+        <c:crossAx val="194849792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15309,11 +15321,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="179284224"/>
-        <c:axId val="179286400"/>
+        <c:axId val="195458176"/>
+        <c:axId val="195460096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179284224"/>
+        <c:axId val="195458176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15343,12 +15355,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179286400"/>
+        <c:crossAx val="195460096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179286400"/>
+        <c:axId val="195460096"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -15379,7 +15391,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179284224"/>
+        <c:crossAx val="195458176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15536,11 +15548,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="179831936"/>
-        <c:axId val="179833856"/>
+        <c:axId val="196820992"/>
+        <c:axId val="196822912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179831936"/>
+        <c:axId val="196820992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15570,12 +15582,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179833856"/>
+        <c:crossAx val="196822912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179833856"/>
+        <c:axId val="196822912"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -15606,7 +15618,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179831936"/>
+        <c:crossAx val="196820992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15781,11 +15793,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="179888128"/>
-        <c:axId val="179890048"/>
+        <c:axId val="196848256"/>
+        <c:axId val="196854528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179888128"/>
+        <c:axId val="196848256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15815,12 +15827,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179890048"/>
+        <c:crossAx val="196854528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179890048"/>
+        <c:axId val="196854528"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -15856,7 +15868,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179888128"/>
+        <c:crossAx val="196848256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16037,11 +16049,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="180517504"/>
-        <c:axId val="180519680"/>
+        <c:axId val="196892160"/>
+        <c:axId val="196894080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="180517504"/>
+        <c:axId val="196892160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16071,12 +16083,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180519680"/>
+        <c:crossAx val="196894080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180519680"/>
+        <c:axId val="196894080"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -16107,7 +16119,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180517504"/>
+        <c:crossAx val="196892160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16287,11 +16299,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="180856704"/>
-        <c:axId val="180858880"/>
+        <c:axId val="196952832"/>
+        <c:axId val="196954752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="180856704"/>
+        <c:axId val="196952832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16320,12 +16332,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180858880"/>
+        <c:crossAx val="196954752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180858880"/>
+        <c:axId val="196954752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16354,7 +16366,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180856704"/>
+        <c:crossAx val="196952832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16533,11 +16545,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="180884608"/>
-        <c:axId val="180886528"/>
+        <c:axId val="197070848"/>
+        <c:axId val="197072768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="180884608"/>
+        <c:axId val="197070848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16566,12 +16578,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180886528"/>
+        <c:crossAx val="197072768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180886528"/>
+        <c:axId val="197072768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16600,7 +16612,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180884608"/>
+        <c:crossAx val="197070848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16779,11 +16791,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="180932992"/>
-        <c:axId val="180934912"/>
+        <c:axId val="197102592"/>
+        <c:axId val="197104768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="180932992"/>
+        <c:axId val="197102592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16812,12 +16824,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180934912"/>
+        <c:crossAx val="197104768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180934912"/>
+        <c:axId val="197104768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16846,7 +16858,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180932992"/>
+        <c:crossAx val="197102592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17013,11 +17025,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="180043136"/>
-        <c:axId val="180045312"/>
+        <c:axId val="197130496"/>
+        <c:axId val="197144960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="180043136"/>
+        <c:axId val="197130496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17046,12 +17058,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180045312"/>
+        <c:crossAx val="197144960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180045312"/>
+        <c:axId val="197144960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17080,7 +17092,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180043136"/>
+        <c:crossAx val="197130496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17129,11 +17141,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="148044032"/>
-        <c:axId val="160866304"/>
+        <c:axId val="174764416"/>
+        <c:axId val="174765952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148044032"/>
+        <c:axId val="174764416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17142,12 +17154,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160866304"/>
+        <c:crossAx val="174765952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160866304"/>
+        <c:axId val="174765952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17156,7 +17168,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148044032"/>
+        <c:crossAx val="174764416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17205,11 +17217,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="180123520"/>
-        <c:axId val="180125056"/>
+        <c:axId val="197178112"/>
+        <c:axId val="197179648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="180123520"/>
+        <c:axId val="197178112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17218,12 +17230,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180125056"/>
+        <c:crossAx val="197179648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180125056"/>
+        <c:axId val="197179648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17232,7 +17244,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180123520"/>
+        <c:crossAx val="197178112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17410,11 +17422,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="180166656"/>
-        <c:axId val="180168576"/>
+        <c:axId val="195201664"/>
+        <c:axId val="195212032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="180166656"/>
+        <c:axId val="195201664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17443,12 +17455,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180168576"/>
+        <c:crossAx val="195212032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180168576"/>
+        <c:axId val="195212032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17477,7 +17489,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180166656"/>
+        <c:crossAx val="195201664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17657,11 +17669,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="180202112"/>
-        <c:axId val="180208384"/>
+        <c:axId val="195237376"/>
+        <c:axId val="195239296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="180202112"/>
+        <c:axId val="195237376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17690,12 +17702,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180208384"/>
+        <c:crossAx val="195239296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180208384"/>
+        <c:axId val="195239296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17724,7 +17736,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180202112"/>
+        <c:crossAx val="195237376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17904,11 +17916,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="181233152"/>
-        <c:axId val="181235072"/>
+        <c:axId val="195277184"/>
+        <c:axId val="195279104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="181233152"/>
+        <c:axId val="195277184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17937,12 +17949,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181235072"/>
+        <c:crossAx val="195279104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181235072"/>
+        <c:axId val="195279104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17971,7 +17983,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181233152"/>
+        <c:crossAx val="195277184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18139,11 +18151,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="181260672"/>
-        <c:axId val="181262592"/>
+        <c:axId val="195292160"/>
+        <c:axId val="195294336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="181260672"/>
+        <c:axId val="195292160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18172,12 +18184,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181262592"/>
+        <c:crossAx val="195294336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181262592"/>
+        <c:axId val="195294336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18206,7 +18218,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181260672"/>
+        <c:crossAx val="195292160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18386,11 +18398,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="181394816"/>
-        <c:axId val="181396992"/>
+        <c:axId val="197273856"/>
+        <c:axId val="197280128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="181394816"/>
+        <c:axId val="197273856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18419,12 +18431,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181396992"/>
+        <c:crossAx val="197280128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181396992"/>
+        <c:axId val="197280128"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -18454,7 +18466,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181394816"/>
+        <c:crossAx val="197273856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18633,11 +18645,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="178866816"/>
-        <c:axId val="178877184"/>
+        <c:axId val="197326336"/>
+        <c:axId val="197328256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="178866816"/>
+        <c:axId val="197326336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18666,12 +18678,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178877184"/>
+        <c:crossAx val="197328256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178877184"/>
+        <c:axId val="197328256"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -18705,7 +18717,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178866816"/>
+        <c:crossAx val="197326336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18860,11 +18872,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="178980736"/>
-        <c:axId val="178991104"/>
+        <c:axId val="198464256"/>
+        <c:axId val="198466176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="178980736"/>
+        <c:axId val="198464256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18893,12 +18905,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178991104"/>
+        <c:crossAx val="198466176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178991104"/>
+        <c:axId val="198466176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18927,7 +18939,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178980736"/>
+        <c:crossAx val="198464256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19082,11 +19094,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="179016832"/>
-        <c:axId val="179018752"/>
+        <c:axId val="198504448"/>
+        <c:axId val="198506368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179016832"/>
+        <c:axId val="198504448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19115,12 +19127,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179018752"/>
+        <c:crossAx val="198506368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179018752"/>
+        <c:axId val="198506368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19149,7 +19161,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179016832"/>
+        <c:crossAx val="198504448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19198,11 +19210,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="181374336"/>
-        <c:axId val="180962432"/>
+        <c:axId val="198588672"/>
+        <c:axId val="196554752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="181374336"/>
+        <c:axId val="198588672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19211,12 +19223,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180962432"/>
+        <c:crossAx val="196554752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180962432"/>
+        <c:axId val="196554752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19225,7 +19237,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181374336"/>
+        <c:crossAx val="198588672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19572,11 +19584,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="162032256"/>
-        <c:axId val="162046720"/>
+        <c:axId val="178685056"/>
+        <c:axId val="178686976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="162032256"/>
+        <c:axId val="178685056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19606,12 +19618,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162046720"/>
+        <c:crossAx val="178686976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="162046720"/>
+        <c:axId val="178686976"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -19642,7 +19654,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162032256"/>
+        <c:crossAx val="178685056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19822,11 +19834,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="181007872"/>
-        <c:axId val="181009792"/>
+        <c:axId val="196592000"/>
+        <c:axId val="196593920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="181007872"/>
+        <c:axId val="196592000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19855,12 +19867,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181009792"/>
+        <c:crossAx val="196593920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181009792"/>
+        <c:axId val="196593920"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -19894,7 +19906,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181007872"/>
+        <c:crossAx val="196592000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20074,11 +20086,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="181051776"/>
-        <c:axId val="181053696"/>
+        <c:axId val="196623360"/>
+        <c:axId val="196625536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="181051776"/>
+        <c:axId val="196623360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20107,12 +20119,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181053696"/>
+        <c:crossAx val="196625536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181053696"/>
+        <c:axId val="196625536"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -20142,7 +20154,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181051776"/>
+        <c:crossAx val="196623360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20298,11 +20310,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="181087232"/>
-        <c:axId val="181089408"/>
+        <c:axId val="196654976"/>
+        <c:axId val="196661248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="181087232"/>
+        <c:axId val="196654976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20331,12 +20343,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181089408"/>
+        <c:crossAx val="196661248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181089408"/>
+        <c:axId val="196661248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20365,7 +20377,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181087232"/>
+        <c:crossAx val="196654976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20521,11 +20533,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="181110656"/>
-        <c:axId val="181121024"/>
+        <c:axId val="196702976"/>
+        <c:axId val="196704896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="181110656"/>
+        <c:axId val="196702976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20554,12 +20566,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181121024"/>
+        <c:crossAx val="196704896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181121024"/>
+        <c:axId val="196704896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20588,7 +20600,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181110656"/>
+        <c:crossAx val="196702976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20640,6 +20652,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -20744,11 +20757,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="181507200"/>
-        <c:axId val="181509120"/>
+        <c:axId val="198676480"/>
+        <c:axId val="198678400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="181507200"/>
+        <c:axId val="198676480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20771,18 +20784,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181509120"/>
+        <c:crossAx val="198678400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181509120"/>
+        <c:axId val="198678400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20805,19 +20819,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181507200"/>
+        <c:crossAx val="198676480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -20862,6 +20878,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -20972,11 +20989,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="182751616"/>
-        <c:axId val="182753536"/>
+        <c:axId val="198691840"/>
+        <c:axId val="198968448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="182751616"/>
+        <c:axId val="198691840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20999,18 +21016,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182753536"/>
+        <c:crossAx val="198968448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="182753536"/>
+        <c:axId val="198968448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21033,19 +21051,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182751616"/>
+        <c:crossAx val="198691840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -21090,6 +21110,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -21194,11 +21215,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="182779264"/>
-        <c:axId val="182781440"/>
+        <c:axId val="199014656"/>
+        <c:axId val="199016832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="182779264"/>
+        <c:axId val="199014656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21221,18 +21242,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182781440"/>
+        <c:crossAx val="199016832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="182781440"/>
+        <c:axId val="199016832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21255,19 +21277,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182779264"/>
+        <c:crossAx val="199014656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -21312,6 +21336,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -21416,11 +21441,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="182798976"/>
-        <c:axId val="182805248"/>
+        <c:axId val="199046656"/>
+        <c:axId val="199048576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="182798976"/>
+        <c:axId val="199046656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21443,18 +21468,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182805248"/>
+        <c:crossAx val="199048576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="182805248"/>
+        <c:axId val="199048576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21481,19 +21507,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182798976"/>
+        <c:crossAx val="199046656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -21536,11 +21564,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="184132736"/>
-        <c:axId val="184134272"/>
+        <c:axId val="198709248"/>
+        <c:axId val="198710784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="184132736"/>
+        <c:axId val="198709248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21549,12 +21577,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184134272"/>
+        <c:crossAx val="198710784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="184134272"/>
+        <c:axId val="198710784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21563,7 +21591,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184132736"/>
+        <c:crossAx val="198709248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21723,11 +21751,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="184146944"/>
-        <c:axId val="184243328"/>
+        <c:axId val="198768512"/>
+        <c:axId val="198774784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="184146944"/>
+        <c:axId val="198768512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21756,12 +21784,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184243328"/>
+        <c:crossAx val="198774784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="184243328"/>
+        <c:axId val="198774784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21790,7 +21818,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184146944"/>
+        <c:crossAx val="198768512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -22139,11 +22167,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="162078720"/>
-        <c:axId val="162080640"/>
+        <c:axId val="179058944"/>
+        <c:axId val="179065216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="162078720"/>
+        <c:axId val="179058944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22173,12 +22201,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162080640"/>
+        <c:crossAx val="179065216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="162080640"/>
+        <c:axId val="179065216"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -22209,7 +22237,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162078720"/>
+        <c:crossAx val="179058944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -22365,11 +22393,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="184264576"/>
-        <c:axId val="184274944"/>
+        <c:axId val="198804224"/>
+        <c:axId val="198806144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="184264576"/>
+        <c:axId val="198804224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22398,12 +22426,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184274944"/>
+        <c:crossAx val="198806144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="184274944"/>
+        <c:axId val="198806144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22432,7 +22460,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184264576"/>
+        <c:crossAx val="198804224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -22588,11 +22616,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="190079744"/>
-        <c:axId val="190081664"/>
+        <c:axId val="198835584"/>
+        <c:axId val="198931968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="190079744"/>
+        <c:axId val="198835584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22621,12 +22649,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190081664"/>
+        <c:crossAx val="198931968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190081664"/>
+        <c:axId val="198931968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22659,7 +22687,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190079744"/>
+        <c:crossAx val="198835584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -22815,11 +22843,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="190094720"/>
-        <c:axId val="190125568"/>
+        <c:axId val="198961408"/>
+        <c:axId val="199426432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="190094720"/>
+        <c:axId val="198961408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22848,12 +22876,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190125568"/>
+        <c:crossAx val="199426432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190125568"/>
+        <c:axId val="199426432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22882,7 +22910,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190094720"/>
+        <c:crossAx val="198961408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -22934,6 +22962,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -23118,11 +23147,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="190201216"/>
-        <c:axId val="190203392"/>
+        <c:axId val="199768320"/>
+        <c:axId val="199770496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="190201216"/>
+        <c:axId val="199768320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23145,18 +23174,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190203392"/>
+        <c:crossAx val="199770496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190203392"/>
+        <c:axId val="199770496"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -23180,19 +23210,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190201216"/>
+        <c:crossAx val="199768320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -23237,6 +23269,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -23421,11 +23454,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="190238080"/>
-        <c:axId val="190244352"/>
+        <c:axId val="199792896"/>
+        <c:axId val="199807360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="190238080"/>
+        <c:axId val="199792896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23448,18 +23481,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190244352"/>
+        <c:crossAx val="199807360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190244352"/>
+        <c:axId val="199807360"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -23483,19 +23517,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190238080"/>
+        <c:crossAx val="199792896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -23540,6 +23576,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -23718,11 +23755,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191446400"/>
-        <c:axId val="191460864"/>
+        <c:axId val="199579904"/>
+        <c:axId val="199586176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191446400"/>
+        <c:axId val="199579904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23745,18 +23782,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191460864"/>
+        <c:crossAx val="199586176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191460864"/>
+        <c:axId val="199586176"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -23780,19 +23818,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191446400"/>
+        <c:crossAx val="199579904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -23837,6 +23877,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -24012,11 +24053,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191475072"/>
-        <c:axId val="191505920"/>
+        <c:axId val="199690496"/>
+        <c:axId val="199692672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191475072"/>
+        <c:axId val="199690496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24039,18 +24080,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191505920"/>
+        <c:crossAx val="199692672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191505920"/>
+        <c:axId val="199692672"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -24074,19 +24116,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191475072"/>
+        <c:crossAx val="199690496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -24129,11 +24173,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189794176"/>
-        <c:axId val="189795712"/>
+        <c:axId val="199729920"/>
+        <c:axId val="199731456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189794176"/>
+        <c:axId val="199729920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24142,12 +24186,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189795712"/>
+        <c:crossAx val="199731456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189795712"/>
+        <c:axId val="199731456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24156,7 +24200,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189794176"/>
+        <c:crossAx val="199729920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -24390,11 +24434,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189850368"/>
-        <c:axId val="189852288"/>
+        <c:axId val="199740800"/>
+        <c:axId val="199357952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189850368"/>
+        <c:axId val="199740800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24423,12 +24467,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189852288"/>
+        <c:crossAx val="199357952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189852288"/>
+        <c:axId val="199357952"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -24458,7 +24502,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189850368"/>
+        <c:crossAx val="199740800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -24694,11 +24738,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189890944"/>
-        <c:axId val="189892864"/>
+        <c:axId val="172542976"/>
+        <c:axId val="172549248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189890944"/>
+        <c:axId val="172542976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24727,12 +24771,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189892864"/>
+        <c:crossAx val="172549248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189892864"/>
+        <c:axId val="172549248"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -24762,7 +24806,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189890944"/>
+        <c:crossAx val="172542976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -25081,11 +25125,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="162128640"/>
-        <c:axId val="162130560"/>
+        <c:axId val="180685824"/>
+        <c:axId val="180696192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="162128640"/>
+        <c:axId val="180685824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25115,12 +25159,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162130560"/>
+        <c:crossAx val="180696192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="162130560"/>
+        <c:axId val="180696192"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -25151,7 +25195,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162128640"/>
+        <c:crossAx val="180685824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -25378,11 +25422,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="192184320"/>
-        <c:axId val="192186240"/>
+        <c:axId val="205589120"/>
+        <c:axId val="205599488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="192184320"/>
+        <c:axId val="205589120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25411,12 +25455,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192186240"/>
+        <c:crossAx val="205599488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="192186240"/>
+        <c:axId val="205599488"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -25446,7 +25490,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192184320"/>
+        <c:crossAx val="205589120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -25676,11 +25720,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="192212352"/>
-        <c:axId val="191890944"/>
+        <c:axId val="205621504"/>
+        <c:axId val="205627776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="192212352"/>
+        <c:axId val="205621504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25709,12 +25753,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191890944"/>
+        <c:crossAx val="205627776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191890944"/>
+        <c:axId val="205627776"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -25744,7 +25788,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192212352"/>
+        <c:crossAx val="205621504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -26081,11 +26125,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="171800448"/>
-        <c:axId val="171814912"/>
+        <c:axId val="180731904"/>
+        <c:axId val="180733824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="171800448"/>
+        <c:axId val="180731904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26115,12 +26159,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171814912"/>
+        <c:crossAx val="180733824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="171814912"/>
+        <c:axId val="180733824"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -26151,7 +26195,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171800448"/>
+        <c:crossAx val="180731904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -28896,11 +28940,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH337"/>
+  <dimension ref="A1:AH341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D300" sqref="D300:E318"/>
+      <pane ySplit="1" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D338" sqref="D338:E341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63987,6 +64031,422 @@
       </c>
       <c r="AH337" t="s">
         <v>747</v>
+      </c>
+    </row>
+    <row r="338" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <v>0.85766699999999996</v>
+      </c>
+      <c r="B338" s="1">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D338" s="1">
+        <v>1.5666699999999999E-2</v>
+      </c>
+      <c r="E338" s="1">
+        <v>0.33233299999999999</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G338" s="1">
+        <v>5.2333299999999999E-2</v>
+      </c>
+      <c r="H338" s="1">
+        <v>0</v>
+      </c>
+      <c r="I338" t="s">
+        <v>34</v>
+      </c>
+      <c r="J338" t="s">
+        <v>35</v>
+      </c>
+      <c r="K338" t="s">
+        <v>36</v>
+      </c>
+      <c r="L338" t="s">
+        <v>37</v>
+      </c>
+      <c r="M338" t="s">
+        <v>205</v>
+      </c>
+      <c r="N338">
+        <v>1000</v>
+      </c>
+      <c r="O338">
+        <v>56</v>
+      </c>
+      <c r="P338">
+        <v>0</v>
+      </c>
+      <c r="Q338" t="s">
+        <v>81</v>
+      </c>
+      <c r="R338" t="s">
+        <v>308</v>
+      </c>
+      <c r="S338" t="s">
+        <v>34</v>
+      </c>
+      <c r="T338" t="s">
+        <v>34</v>
+      </c>
+      <c r="U338" t="s">
+        <v>34</v>
+      </c>
+      <c r="V338" t="s">
+        <v>34</v>
+      </c>
+      <c r="W338" t="s">
+        <v>37</v>
+      </c>
+      <c r="X338" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y338">
+        <v>425.28800000000001</v>
+      </c>
+      <c r="Z338" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA338" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB338" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC338">
+        <v>5</v>
+      </c>
+      <c r="AD338">
+        <v>0</v>
+      </c>
+      <c r="AE338">
+        <v>0</v>
+      </c>
+      <c r="AF338" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG338" t="s">
+        <v>339</v>
+      </c>
+      <c r="AH338" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="339" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <v>23.715299999999999</v>
+      </c>
+      <c r="B339" s="1">
+        <v>23.626000000000001</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D339" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E339" s="1">
+        <v>8.5666699999999998E-2</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G339" s="1">
+        <v>0.26066699999999998</v>
+      </c>
+      <c r="H339" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="I339" t="s">
+        <v>34</v>
+      </c>
+      <c r="J339" t="s">
+        <v>35</v>
+      </c>
+      <c r="K339" t="s">
+        <v>36</v>
+      </c>
+      <c r="L339" t="s">
+        <v>37</v>
+      </c>
+      <c r="M339" t="s">
+        <v>205</v>
+      </c>
+      <c r="N339">
+        <v>5000</v>
+      </c>
+      <c r="O339">
+        <v>56</v>
+      </c>
+      <c r="P339">
+        <v>0</v>
+      </c>
+      <c r="Q339" t="s">
+        <v>81</v>
+      </c>
+      <c r="R339" t="s">
+        <v>308</v>
+      </c>
+      <c r="S339" t="s">
+        <v>34</v>
+      </c>
+      <c r="T339" t="s">
+        <v>34</v>
+      </c>
+      <c r="U339" t="s">
+        <v>34</v>
+      </c>
+      <c r="V339" t="s">
+        <v>34</v>
+      </c>
+      <c r="W339" t="s">
+        <v>37</v>
+      </c>
+      <c r="X339" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y339">
+        <v>426.74400000000003</v>
+      </c>
+      <c r="Z339" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA339" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB339" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC339">
+        <v>5</v>
+      </c>
+      <c r="AD339">
+        <v>0</v>
+      </c>
+      <c r="AE339">
+        <v>0</v>
+      </c>
+      <c r="AF339" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG339" t="s">
+        <v>341</v>
+      </c>
+      <c r="AH339" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="340" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>113.03</v>
+      </c>
+      <c r="B340" s="1">
+        <v>112.669</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D340" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E340" s="1">
+        <v>0.35333300000000001</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G340" s="1">
+        <v>0.42966700000000002</v>
+      </c>
+      <c r="H340" s="1">
+        <v>2.6666699999999999E-3</v>
+      </c>
+      <c r="I340" t="s">
+        <v>34</v>
+      </c>
+      <c r="J340" t="s">
+        <v>35</v>
+      </c>
+      <c r="K340" t="s">
+        <v>36</v>
+      </c>
+      <c r="L340" t="s">
+        <v>37</v>
+      </c>
+      <c r="M340" t="s">
+        <v>205</v>
+      </c>
+      <c r="N340">
+        <v>10000</v>
+      </c>
+      <c r="O340">
+        <v>56</v>
+      </c>
+      <c r="P340">
+        <v>0</v>
+      </c>
+      <c r="Q340" t="s">
+        <v>81</v>
+      </c>
+      <c r="R340" t="s">
+        <v>308</v>
+      </c>
+      <c r="S340" t="s">
+        <v>34</v>
+      </c>
+      <c r="T340" t="s">
+        <v>34</v>
+      </c>
+      <c r="U340" t="s">
+        <v>34</v>
+      </c>
+      <c r="V340" t="s">
+        <v>34</v>
+      </c>
+      <c r="W340" t="s">
+        <v>37</v>
+      </c>
+      <c r="X340" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y340">
+        <v>426.74400000000003</v>
+      </c>
+      <c r="Z340" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA340" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB340" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC340">
+        <v>5</v>
+      </c>
+      <c r="AD340">
+        <v>0</v>
+      </c>
+      <c r="AE340">
+        <v>0</v>
+      </c>
+      <c r="AF340" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG340" t="s">
+        <v>343</v>
+      </c>
+      <c r="AH340" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="341" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <v>1955.76</v>
+      </c>
+      <c r="B341" s="1">
+        <v>1944.79</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D341" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E341" s="1">
+        <v>0.99366699999999997</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G341" s="1">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="H341" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I341" t="s">
+        <v>34</v>
+      </c>
+      <c r="J341" t="s">
+        <v>35</v>
+      </c>
+      <c r="K341" t="s">
+        <v>36</v>
+      </c>
+      <c r="L341" t="s">
+        <v>37</v>
+      </c>
+      <c r="M341" t="s">
+        <v>205</v>
+      </c>
+      <c r="N341">
+        <v>30000</v>
+      </c>
+      <c r="O341">
+        <v>56</v>
+      </c>
+      <c r="P341">
+        <v>0</v>
+      </c>
+      <c r="Q341" t="s">
+        <v>81</v>
+      </c>
+      <c r="R341" t="s">
+        <v>308</v>
+      </c>
+      <c r="S341" t="s">
+        <v>34</v>
+      </c>
+      <c r="T341" t="s">
+        <v>34</v>
+      </c>
+      <c r="U341" t="s">
+        <v>34</v>
+      </c>
+      <c r="V341" t="s">
+        <v>34</v>
+      </c>
+      <c r="W341" t="s">
+        <v>37</v>
+      </c>
+      <c r="X341" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y341">
+        <v>426.74400000000003</v>
+      </c>
+      <c r="Z341" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA341" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB341" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC341">
+        <v>5</v>
+      </c>
+      <c r="AD341">
+        <v>0</v>
+      </c>
+      <c r="AE341">
+        <v>0</v>
+      </c>
+      <c r="AF341" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG341" t="s">
+        <v>345</v>
+      </c>
+      <c r="AH341" t="s">
+        <v>753</v>
       </c>
     </row>
   </sheetData>
@@ -69645,8 +70105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:P52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -70563,16 +71023,16 @@
       </c>
       <c r="I19" s="3">
         <f t="shared" si="1"/>
-        <v>1.5423336700000001</v>
+        <v>0.8209997</v>
       </c>
       <c r="J19" s="3">
-        <v>1.081</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="K19" s="3">
-        <v>9.6666700000000005E-3</v>
+        <v>1.5666699999999999E-2</v>
       </c>
       <c r="L19" s="3">
-        <v>0.45166699999999999</v>
+        <v>0.33233299999999999</v>
       </c>
       <c r="M19" s="3">
         <f t="shared" si="2"/>
@@ -70614,16 +71074,16 @@
       </c>
       <c r="I20" s="3">
         <f t="shared" si="1"/>
-        <v>255.92999699999999</v>
+        <v>23.715666700000003</v>
       </c>
       <c r="J20" s="3">
-        <v>249.875</v>
+        <v>23.626000000000001</v>
       </c>
       <c r="K20" s="3">
-        <v>0.25166699999999997</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="L20" s="3">
-        <v>5.8033299999999999</v>
+        <v>8.5666699999999998E-2</v>
       </c>
       <c r="M20" s="3">
         <f t="shared" si="2"/>
@@ -70665,16 +71125,16 @@
       </c>
       <c r="I21" s="3">
         <f t="shared" si="1"/>
-        <v>131.30700300000001</v>
+        <v>113.02933300000001</v>
       </c>
       <c r="J21" s="3">
-        <v>121.01</v>
+        <v>112.669</v>
       </c>
       <c r="K21" s="3">
-        <v>0.466333</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="L21" s="3">
-        <v>9.8306699999999996</v>
+        <v>0.35333300000000001</v>
       </c>
       <c r="M21" s="3">
         <f t="shared" si="2"/>
@@ -70716,16 +71176,16 @@
       </c>
       <c r="I22" s="3">
         <f t="shared" si="1"/>
-        <v>1895.801667</v>
+        <v>1945.8146669999999</v>
       </c>
       <c r="J22" s="3">
-        <v>1894.98</v>
+        <v>1944.79</v>
       </c>
       <c r="K22" s="3">
-        <v>2.1000000000000001E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="L22" s="3">
-        <v>0.80066700000000002</v>
+        <v>0.99366699999999997</v>
       </c>
       <c r="M22" s="3">
         <f t="shared" si="2"/>
@@ -70791,30 +71251,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
-    <mergeCell ref="L2:L3"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -72867,14 +73327,14 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
@@ -72905,7 +73365,7 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:J46"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -73884,16 +74344,17 @@
         <v>0.17533299999999999</v>
       </c>
       <c r="G19" s="3">
-        <v>1.54267</v>
+        <f t="shared" ref="G19:G22" si="1">H19+I19+J19</f>
+        <v>0.8209997</v>
       </c>
       <c r="H19" s="3">
-        <v>1.081</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="I19" s="3">
-        <v>9.6666700000000005E-3</v>
+        <v>1.5666699999999999E-2</v>
       </c>
       <c r="J19" s="3">
-        <v>0.45166699999999999</v>
+        <v>0.33233299999999999</v>
       </c>
       <c r="K19" s="3">
         <v>2.1523300000000001</v>
@@ -73939,16 +74400,17 @@
         <v>9.6289999999999996</v>
       </c>
       <c r="G20" s="3">
-        <v>255.93</v>
+        <f t="shared" si="1"/>
+        <v>23.715666700000003</v>
       </c>
       <c r="H20" s="3">
-        <v>249.875</v>
+        <v>23.626000000000001</v>
       </c>
       <c r="I20" s="3">
-        <v>0.25166699999999997</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J20" s="3">
-        <v>5.8033299999999999</v>
+        <v>8.5666699999999998E-2</v>
       </c>
       <c r="K20" s="3">
         <v>72.805000000000007</v>
@@ -73994,16 +74456,17 @@
         <v>7.0060000000000002</v>
       </c>
       <c r="G21" s="3">
-        <v>128.98500000000001</v>
+        <f t="shared" si="1"/>
+        <v>113.02933300000001</v>
       </c>
       <c r="H21" s="3">
-        <v>121.01</v>
+        <v>112.669</v>
       </c>
       <c r="I21" s="3">
-        <v>0.466333</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="J21" s="3">
-        <v>9.8306699999999996</v>
+        <v>0.35333300000000001</v>
       </c>
       <c r="K21" s="3">
         <v>440.89800000000002</v>
@@ -74049,16 +74512,17 @@
         <v>1.288</v>
       </c>
       <c r="G22" s="3">
-        <v>1895.77</v>
+        <f t="shared" si="1"/>
+        <v>1945.8146669999999</v>
       </c>
       <c r="H22" s="3">
-        <v>1894.98</v>
+        <v>1944.79</v>
       </c>
       <c r="I22" s="3">
-        <v>2.1000000000000001E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="J22" s="3">
-        <v>0.80066700000000002</v>
+        <v>0.99366699999999997</v>
       </c>
       <c r="K22" s="3">
         <v>6006.42</v>
@@ -74177,7 +74641,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
